--- a/contents/Luna/잔월_테이블_04_05.xlsx
+++ b/contents/Luna/잔월_테이블_04_05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wepatens\contents\Luna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DE7160-8C6D-4EE4-BA83-3FBFC77C26A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCF46A3-D212-4D2F-B7BE-D75C98191D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="293">
   <si>
     <t>방어력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터가 가지는 수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,22 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬을 사용하는 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요한 애니메이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요한 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 사용시 소모되는 요소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,10 +672,6 @@
   </si>
   <si>
     <t>데미지 배수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬은 q e r키를 눌러 사용한다. Q=0, e=1, r=2로 값을 지정한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1211,6 +1187,10 @@
   </si>
   <si>
     <t>스키마데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1777,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1928,36 +1908,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1967,56 +1917,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2035,41 +1951,40 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2078,27 +1993,99 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2499,2121 +2486,2073 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E1EDD1-0607-41DE-B1FD-BD342E7B8138}">
-  <dimension ref="A2:U102"/>
+  <dimension ref="B2:V95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="7"/>
+    <row r="2" spans="2:16" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L6" s="20"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="L7" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="81">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="119"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="125" t="s">
+        <v>277</v>
+      </c>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="81">
+        <v>2</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K6" s="20"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="M10" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="81">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="110"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M11" s="112" t="s">
+        <v>141</v>
+      </c>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="81">
+        <v>4</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="110"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M12" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="81">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="110"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="81">
+        <v>6</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="110"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="N14" s="110"/>
+      <c r="O14" s="109"/>
+      <c r="P14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="81">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="100">
-        <v>1</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="L9" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="100">
-        <v>2</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="K10" s="17" t="s">
+      <c r="D15" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="110"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="L10" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="100">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="M15" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="N15" s="110"/>
+      <c r="O15" s="109"/>
+      <c r="P15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="81">
+        <v>8</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="17" t="s">
+      <c r="D16" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="110"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="L11" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="100">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="17" t="s">
+      <c r="M16" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="N16" s="128"/>
+      <c r="O16" s="129"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="81">
+        <v>9</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="110"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="L12" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="100">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L13" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="100">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="M14" s="87"/>
-      <c r="N14" s="88"/>
-      <c r="O14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="100">
-        <v>7</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="M15" s="87"/>
-      <c r="N15" s="88"/>
-      <c r="O15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="100">
-        <v>8</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="M16" s="82"/>
-      <c r="N16" s="83"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="100">
-        <v>9</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="M17" s="82"/>
-      <c r="N17" s="83"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="4"/>
+      <c r="M17" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="N17" s="128"/>
+      <c r="O17" s="129"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C18" s="23"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:16" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="32" t="s">
+        <v>127</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="135"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="23" t="s">
+        <v>112</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="F24" s="4"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="100">
+      <c r="D25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="36"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="35"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="81">
         <v>1</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="100">
+      <c r="C26" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="119"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="81">
+        <v>1</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" s="38">
+        <v>1</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="79"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="81">
         <v>2</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="C27" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="81">
+        <v>2</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="O27" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" s="78"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="81">
+        <v>3</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="81">
+        <v>3</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="N28" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="O28" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="P28" s="78"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="81">
+        <v>4</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="135"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="81">
+        <v>5</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="135"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="81">
+        <v>6</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="81">
+        <v>7</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="D32" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="100">
+      <c r="E32" s="110"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="81">
+        <v>8</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="110"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="81">
+        <v>9</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="112" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="23"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="23"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="23"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="81">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="81">
+        <v>2</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="81">
         <v>3</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="100">
+      <c r="C43" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="81">
         <v>4</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="100">
+      <c r="C44" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="81">
         <v>5</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="49" t="s">
+      <c r="C45" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="81">
+        <v>6</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="81">
+        <v>7</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="81">
+        <v>8</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B49" s="81">
+        <v>9</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B50" s="5"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+    </row>
+    <row r="52" spans="2:22" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C53" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="65"/>
+      <c r="V53" s="65"/>
+    </row>
+    <row r="54" spans="2:22" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="C54" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="L54" s="68"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="65"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="65"/>
+      <c r="V54" s="65"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B55" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="120"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="N55" s="39"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="R55" s="106"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="65"/>
+      <c r="V55" s="65"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B56" s="81">
+        <v>1</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="130" t="s">
+        <v>287</v>
+      </c>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="81">
+        <v>1</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="M56" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="76">
+        <v>40000</v>
+      </c>
+      <c r="R56" s="78"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="65"/>
+      <c r="V56" s="65"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B57" s="81">
+        <v>2</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="81">
+        <v>2</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M57" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="76">
+        <v>40001</v>
+      </c>
+      <c r="R57" s="78"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="65"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B58" s="81">
+        <v>3</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="100">
-        <v>6</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="100">
-        <v>7</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="100">
-        <v>8</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="100">
-        <v>9</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="23"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="100">
-        <v>1</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="93"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="100">
-        <v>2</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="D39" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="88"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="100">
+      <c r="D58" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" s="112"/>
+      <c r="F58" s="112"/>
+      <c r="G58" s="112"/>
+      <c r="H58" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="81">
         <v>3</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="D40" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="88"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="23"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="23"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="100">
-        <v>1</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="100">
-        <v>2</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="100">
-        <v>3</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="100">
+      <c r="L58" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M58" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N58" s="77"/>
+      <c r="O58" s="77"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="76">
+        <v>40002</v>
+      </c>
+      <c r="R58" s="78"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="65"/>
+      <c r="V58" s="65"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B59" s="81">
         <v>4</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="100">
+      <c r="C59" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="112" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="81">
+        <v>4</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M59" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="76">
+        <v>40003</v>
+      </c>
+      <c r="R59" s="78"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="65"/>
+      <c r="V59" s="65"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B60" s="81">
         <v>5</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="100">
-        <v>6</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="100">
-        <v>7</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="100">
-        <v>8</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="100">
-        <v>9</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="103"/>
-    </row>
-    <row r="59" spans="1:21" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B60" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="H60" s="65"/>
+      <c r="C60" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="49" t="s">
+        <v>281</v>
+      </c>
       <c r="I60" s="65"/>
       <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="65"/>
+      <c r="K60" s="81">
+        <v>5</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M60" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="N60" s="77"/>
+      <c r="O60" s="77"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="76">
+        <v>40004</v>
+      </c>
+      <c r="R60" s="78"/>
       <c r="S60" s="65"/>
       <c r="T60" s="65"/>
       <c r="U60" s="65"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B61" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="4"/>
+      <c r="V60" s="65"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C61" s="20"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="H61" s="65"/>
+      <c r="G61" s="4"/>
       <c r="I61" s="65"/>
       <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="65"/>
-      <c r="O61" s="65"/>
-      <c r="P61" s="65"/>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="65"/>
+      <c r="K61" s="81">
+        <v>6</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="M61" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="N61" s="110"/>
+      <c r="O61" s="110"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="108">
+        <v>40005</v>
+      </c>
+      <c r="R61" s="109"/>
       <c r="S61" s="65"/>
       <c r="T61" s="65"/>
       <c r="U61" s="65"/>
-    </row>
-    <row r="62" spans="1:21" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A62" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="B62" s="8" t="s">
+      <c r="V61" s="65"/>
+    </row>
+    <row r="62" spans="2:22" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="C62" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="70"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="81">
         <v>7</v>
       </c>
-      <c r="C62" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="77"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="128" t="s">
-        <v>294</v>
-      </c>
-      <c r="K62" s="128"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65"/>
-      <c r="P62" s="65"/>
-      <c r="Q62" s="65"/>
-      <c r="R62" s="65"/>
+      <c r="L62" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="M62" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="N62" s="110"/>
+      <c r="O62" s="110"/>
+      <c r="P62" s="109"/>
+      <c r="Q62" s="108">
+        <v>50001</v>
+      </c>
+      <c r="R62" s="109"/>
       <c r="S62" s="65"/>
       <c r="T62" s="65"/>
       <c r="U62" s="65"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="100">
-        <v>1</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="H63" s="65"/>
+      <c r="V62" s="65"/>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B63" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="120"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="48" t="s">
+        <v>157</v>
+      </c>
       <c r="I63" s="65"/>
-      <c r="J63" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L63" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="M63" s="39"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="129" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q63" s="129"/>
-      <c r="R63" s="65"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="81">
+        <v>8</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="M63" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="N63" s="110"/>
+      <c r="O63" s="110"/>
+      <c r="P63" s="109"/>
+      <c r="Q63" s="108">
+        <v>50002</v>
+      </c>
+      <c r="R63" s="109"/>
       <c r="S63" s="65"/>
       <c r="T63" s="65"/>
       <c r="U63" s="65"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="100">
-        <v>2</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C64" s="80" t="s">
-        <v>263</v>
-      </c>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="H64" s="65"/>
+      <c r="V63" s="65"/>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B64" s="81">
+        <v>1</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="112"/>
+      <c r="H64" s="49">
+        <v>0</v>
+      </c>
       <c r="I64" s="65"/>
-      <c r="J64" s="100">
-        <v>1</v>
-      </c>
-      <c r="K64" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="L64" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="M64" s="87"/>
-      <c r="N64" s="87"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="86">
-        <v>40000</v>
-      </c>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="65"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="81">
+        <v>9</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="M64" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="N64" s="110"/>
+      <c r="O64" s="110"/>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="108">
+        <v>50003</v>
+      </c>
+      <c r="R64" s="109"/>
       <c r="S64" s="65"/>
       <c r="T64" s="65"/>
       <c r="U64" s="65"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="100">
-        <v>3</v>
-      </c>
-      <c r="B65" s="15" t="s">
+      <c r="V64" s="65"/>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B65" s="81">
+        <v>2</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="C65" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="H65" s="65"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="49">
+        <v>1</v>
+      </c>
       <c r="I65" s="65"/>
-      <c r="J65" s="100">
-        <v>2</v>
-      </c>
-      <c r="K65" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="L65" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="M65" s="87"/>
-      <c r="N65" s="87"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="86">
-        <v>40001</v>
-      </c>
-      <c r="Q65" s="88"/>
-      <c r="R65" s="65"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="81">
+        <v>10</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="M65" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65" s="110"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="108">
+        <v>50004</v>
+      </c>
+      <c r="R65" s="109"/>
       <c r="S65" s="65"/>
       <c r="T65" s="65"/>
       <c r="U65" s="65"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="100">
+      <c r="V65" s="65"/>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B66" s="81">
+        <v>3</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="54">
+        <v>2</v>
+      </c>
+      <c r="I66" s="65"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="81">
+        <v>11</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="M66" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="N66" s="110"/>
+      <c r="O66" s="110"/>
+      <c r="P66" s="109"/>
+      <c r="Q66" s="108">
+        <v>50005</v>
+      </c>
+      <c r="R66" s="109"/>
+      <c r="S66" s="126"/>
+      <c r="T66" s="126"/>
+      <c r="U66" s="126"/>
+      <c r="V66" s="126"/>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B67" s="81">
         <v>4</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="100">
+      <c r="C67" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="49">
         <v>3</v>
       </c>
-      <c r="K66" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L66" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="M66" s="87"/>
-      <c r="N66" s="87"/>
-      <c r="O66" s="88"/>
-      <c r="P66" s="86">
-        <v>40002</v>
-      </c>
-      <c r="Q66" s="88"/>
-      <c r="R66" s="65"/>
-      <c r="S66" s="65"/>
-      <c r="T66" s="65"/>
-      <c r="U66" s="65"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="100">
+      <c r="I67" s="65"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="81">
+        <v>12</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="M67" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="N67" s="112"/>
+      <c r="O67" s="112"/>
+      <c r="P67" s="112"/>
+      <c r="Q67" s="112">
+        <v>50006</v>
+      </c>
+      <c r="R67" s="112"/>
+      <c r="S67" s="126"/>
+      <c r="T67" s="126"/>
+      <c r="U67" s="126"/>
+      <c r="V67" s="126"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B68" s="81">
         <v>5</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C67" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="100">
+      <c r="C68" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="112"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="112"/>
+      <c r="H68" s="49">
         <v>4</v>
       </c>
-      <c r="K67" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L67" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="M67" s="87"/>
-      <c r="N67" s="87"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="86">
-        <v>40003</v>
-      </c>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="65"/>
-      <c r="S67" s="65"/>
-      <c r="T67" s="65"/>
-      <c r="U67" s="65"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B68" s="20"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="H68" s="65"/>
       <c r="I68" s="65"/>
-      <c r="J68" s="100">
+      <c r="J68" s="44"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="113"/>
+      <c r="O68" s="113"/>
+      <c r="P68" s="113"/>
+      <c r="Q68" s="111"/>
+      <c r="R68" s="111"/>
+      <c r="S68" s="126"/>
+      <c r="T68" s="126"/>
+      <c r="U68" s="126"/>
+      <c r="V68" s="126"/>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B69" s="81">
+        <v>6</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="112"/>
+      <c r="F69" s="112"/>
+      <c r="G69" s="112"/>
+      <c r="H69" s="49">
         <v>5</v>
       </c>
-      <c r="K68" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="L68" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="M68" s="87"/>
-      <c r="N68" s="87"/>
-      <c r="O68" s="88"/>
-      <c r="P68" s="86">
-        <v>40004</v>
-      </c>
-      <c r="Q68" s="88"/>
-      <c r="R68" s="65"/>
-      <c r="S68" s="65"/>
-      <c r="T68" s="65"/>
-      <c r="U68" s="65"/>
-    </row>
-    <row r="69" spans="1:21" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B69" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" s="70"/>
-      <c r="H69" s="65"/>
       <c r="I69" s="65"/>
-      <c r="J69" s="100">
-        <v>6</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="L69" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="80"/>
-      <c r="P69" s="80">
-        <v>40005</v>
-      </c>
-      <c r="Q69" s="80"/>
-      <c r="R69" s="65"/>
-      <c r="S69" s="65"/>
-      <c r="T69" s="65"/>
-      <c r="U69" s="65"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="B70" s="8" t="s">
+      <c r="J69" s="44"/>
+      <c r="K69" s="107"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="113"/>
+      <c r="O69" s="113"/>
+      <c r="P69" s="113"/>
+      <c r="Q69" s="111"/>
+      <c r="R69" s="111"/>
+      <c r="S69" s="126"/>
+      <c r="T69" s="126"/>
+      <c r="U69" s="126"/>
+      <c r="V69" s="126"/>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="107"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="113"/>
+      <c r="P70" s="113"/>
+      <c r="Q70" s="111"/>
+      <c r="R70" s="111"/>
+      <c r="S70" s="126"/>
+      <c r="T70" s="126"/>
+      <c r="U70" s="126"/>
+      <c r="V70" s="126"/>
+    </row>
+    <row r="71" spans="2:22" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B71" s="6"/>
+      <c r="C71" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="D71" s="44"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="107"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="113"/>
+      <c r="O71" s="113"/>
+      <c r="P71" s="113"/>
+      <c r="Q71" s="111"/>
+      <c r="R71" s="111"/>
+      <c r="S71" s="126"/>
+      <c r="T71" s="126"/>
+      <c r="U71" s="126"/>
+      <c r="V71" s="126"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B72" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" s="77"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="H70" s="65"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="100">
-        <v>7</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="L70" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="M70" s="80"/>
-      <c r="N70" s="80"/>
-      <c r="O70" s="80"/>
-      <c r="P70" s="80">
-        <v>50001</v>
-      </c>
-      <c r="Q70" s="80"/>
-      <c r="R70" s="65"/>
-      <c r="S70" s="65"/>
-      <c r="T70" s="65"/>
-      <c r="U70" s="65"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="100">
-        <v>1</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="49">
-        <v>0</v>
-      </c>
-      <c r="H71" s="65"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="100">
-        <v>8</v>
-      </c>
-      <c r="K71" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="L71" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="M71" s="80"/>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="80">
-        <v>50002</v>
-      </c>
-      <c r="Q71" s="80"/>
-      <c r="R71" s="65"/>
-      <c r="S71" s="65"/>
-      <c r="T71" s="65"/>
-      <c r="U71" s="65"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="100">
-        <v>2</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="49">
-        <v>1</v>
-      </c>
-      <c r="H72" s="65"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="100">
-        <v>9</v>
-      </c>
-      <c r="K72" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="L72" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="M72" s="80"/>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="80">
-        <v>50003</v>
-      </c>
-      <c r="Q72" s="80"/>
-      <c r="R72" s="65"/>
+      <c r="D72" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="117"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="118"/>
+      <c r="H72" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="I72" s="65"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="107"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="113"/>
+      <c r="N72" s="113"/>
+      <c r="O72" s="113"/>
+      <c r="P72" s="113"/>
+      <c r="Q72" s="111"/>
+      <c r="R72" s="111"/>
       <c r="S72" s="65"/>
       <c r="T72" s="65"/>
       <c r="U72" s="65"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="100">
+      <c r="V72" s="65"/>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B73" s="81">
+        <v>1</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="112"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="112"/>
+      <c r="H73" s="49">
+        <v>6</v>
+      </c>
+      <c r="I73" s="65"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="107"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="113"/>
+      <c r="P73" s="113"/>
+      <c r="Q73" s="111"/>
+      <c r="R73" s="111"/>
+      <c r="S73" s="65"/>
+      <c r="T73" s="65"/>
+      <c r="U73" s="65"/>
+      <c r="V73" s="65"/>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B74" s="81">
+        <v>2</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" s="112" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="112"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="112"/>
+      <c r="H74" s="49">
+        <v>7</v>
+      </c>
+      <c r="I74" s="65"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="124"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="124"/>
+      <c r="N74" s="124"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="65"/>
+      <c r="R74" s="65"/>
+      <c r="S74" s="65"/>
+      <c r="T74" s="65"/>
+      <c r="U74" s="65"/>
+      <c r="V74" s="65"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B75" s="81">
         <v>3</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="54">
+      <c r="C75" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="112"/>
+      <c r="F75" s="112"/>
+      <c r="G75" s="112"/>
+      <c r="H75" s="54">
+        <v>8</v>
+      </c>
+      <c r="I75" s="65"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="124"/>
+      <c r="L75" s="124"/>
+      <c r="M75" s="124"/>
+      <c r="N75" s="124"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="66"/>
+      <c r="Q75" s="65"/>
+      <c r="R75" s="65"/>
+      <c r="S75" s="65"/>
+      <c r="T75" s="65"/>
+      <c r="U75" s="65"/>
+      <c r="V75" s="65"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B76" s="81">
+        <v>4</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
+      <c r="G76" s="112"/>
+      <c r="H76" s="49">
+        <v>9</v>
+      </c>
+      <c r="I76" s="65"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="124"/>
+      <c r="L76" s="124"/>
+      <c r="M76" s="124"/>
+      <c r="N76" s="124"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="66"/>
+      <c r="Q76" s="65"/>
+      <c r="R76" s="65"/>
+      <c r="S76" s="65"/>
+      <c r="T76" s="65"/>
+      <c r="U76" s="65"/>
+      <c r="V76" s="65"/>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B77" s="81">
+        <v>5</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D77" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="112"/>
+      <c r="F77" s="112"/>
+      <c r="G77" s="112"/>
+      <c r="H77" s="49">
+        <v>10</v>
+      </c>
+      <c r="I77" s="65"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
+      <c r="M77" s="66"/>
+      <c r="N77" s="66"/>
+      <c r="O77" s="66"/>
+      <c r="P77" s="66"/>
+      <c r="Q77" s="65"/>
+      <c r="R77" s="65"/>
+      <c r="S77" s="65"/>
+      <c r="T77" s="65"/>
+      <c r="U77" s="65"/>
+      <c r="V77" s="65"/>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B78" s="81">
+        <v>6</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D78" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="112"/>
+      <c r="F78" s="112"/>
+      <c r="G78" s="112"/>
+      <c r="H78" s="49">
+        <v>11</v>
+      </c>
+      <c r="I78" s="65"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="66"/>
+      <c r="Q78" s="65"/>
+      <c r="R78" s="65"/>
+      <c r="S78" s="65"/>
+      <c r="T78" s="65"/>
+      <c r="U78" s="65"/>
+      <c r="V78" s="65"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="I79" s="65"/>
+      <c r="J79" s="66"/>
+      <c r="S79" s="65"/>
+      <c r="T79" s="65"/>
+      <c r="U79" s="65"/>
+      <c r="V79" s="65"/>
+    </row>
+    <row r="80" spans="2:22" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I80" s="65"/>
+      <c r="J80" s="66"/>
+      <c r="S80" s="65"/>
+      <c r="T80" s="65"/>
+      <c r="U80" s="65"/>
+      <c r="V80" s="65"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C81" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="120"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="81">
+        <v>1</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D83" s="112" t="s">
+        <v>271</v>
+      </c>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="112"/>
+      <c r="H83" s="49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="81">
         <v>2</v>
       </c>
-      <c r="H73" s="65"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="100">
-        <v>10</v>
-      </c>
-      <c r="K73" s="16" t="s">
+      <c r="C84" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="112" t="s">
         <v>272</v>
       </c>
-      <c r="L73" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="M73" s="80"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="80">
-        <v>50004</v>
-      </c>
-      <c r="Q73" s="80"/>
-      <c r="R73" s="84"/>
-      <c r="S73" s="84"/>
-      <c r="T73" s="84"/>
-      <c r="U73" s="84"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="100">
+      <c r="E84" s="112"/>
+      <c r="F84" s="112"/>
+      <c r="G84" s="112"/>
+      <c r="H84" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="81">
+        <v>3</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" s="112"/>
+      <c r="F85" s="112"/>
+      <c r="G85" s="112"/>
+      <c r="H85" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="81">
         <v>4</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="49">
-        <v>3</v>
-      </c>
-      <c r="H74" s="65"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="100">
-        <v>11</v>
-      </c>
-      <c r="K74" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="L74" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="M74" s="80"/>
-      <c r="N74" s="80"/>
-      <c r="O74" s="80"/>
-      <c r="P74" s="80">
-        <v>50005</v>
-      </c>
-      <c r="Q74" s="80"/>
-      <c r="R74" s="84"/>
-      <c r="S74" s="84"/>
-      <c r="T74" s="84"/>
-      <c r="U74" s="84"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="100">
+      <c r="C86" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="112" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" s="112"/>
+      <c r="F86" s="112"/>
+      <c r="G86" s="112"/>
+      <c r="H86" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="81">
         <v>5</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="49">
-        <v>4</v>
-      </c>
-      <c r="H75" s="65"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="100">
-        <v>12</v>
-      </c>
-      <c r="K75" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="L75" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="M75" s="80"/>
-      <c r="N75" s="80"/>
-      <c r="O75" s="80"/>
-      <c r="P75" s="80">
-        <v>50006</v>
-      </c>
-      <c r="Q75" s="80"/>
-      <c r="R75" s="84"/>
-      <c r="S75" s="84"/>
-      <c r="T75" s="84"/>
-      <c r="U75" s="84"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="100">
+      <c r="C87" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="81">
         <v>6</v>
       </c>
-      <c r="B76" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="49">
-        <v>5</v>
-      </c>
-      <c r="H76" s="65"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="130"/>
-      <c r="K76" s="131"/>
-      <c r="L76" s="132"/>
-      <c r="M76" s="132"/>
-      <c r="N76" s="132"/>
-      <c r="O76" s="132"/>
-      <c r="P76" s="102"/>
-      <c r="Q76" s="102"/>
-      <c r="R76" s="133"/>
-      <c r="S76" s="133"/>
-      <c r="T76" s="133"/>
-      <c r="U76" s="133"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="130"/>
-      <c r="K77" s="134"/>
-      <c r="L77" s="132"/>
-      <c r="M77" s="132"/>
-      <c r="N77" s="132"/>
-      <c r="O77" s="132"/>
-      <c r="P77" s="102"/>
-      <c r="Q77" s="102"/>
-      <c r="R77" s="133"/>
-      <c r="S77" s="133"/>
-      <c r="T77" s="133"/>
-      <c r="U77" s="133"/>
-    </row>
-    <row r="78" spans="1:21" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A78" s="6"/>
-      <c r="B78" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="130"/>
-      <c r="K78" s="134"/>
-      <c r="L78" s="132"/>
-      <c r="M78" s="132"/>
-      <c r="N78" s="132"/>
-      <c r="O78" s="132"/>
-      <c r="P78" s="102"/>
-      <c r="Q78" s="102"/>
-      <c r="R78" s="133"/>
-      <c r="S78" s="133"/>
-      <c r="T78" s="133"/>
-      <c r="U78" s="133"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="B79" s="69" t="s">
+      <c r="C88" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D88" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
+      <c r="G88" s="112"/>
+      <c r="H88" s="54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="81">
         <v>7</v>
       </c>
-      <c r="C79" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="H79" s="65"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="130"/>
-      <c r="K79" s="134"/>
-      <c r="L79" s="132"/>
-      <c r="M79" s="132"/>
-      <c r="N79" s="132"/>
-      <c r="O79" s="132"/>
-      <c r="P79" s="102"/>
-      <c r="Q79" s="102"/>
-      <c r="R79" s="135"/>
-      <c r="S79" s="135"/>
-      <c r="T79" s="135"/>
-      <c r="U79" s="135"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="100">
-        <v>1</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C80" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" s="80"/>
-      <c r="E80" s="80"/>
-      <c r="F80" s="80"/>
-      <c r="G80" s="49">
-        <v>6</v>
-      </c>
-      <c r="H80" s="65"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="130"/>
-      <c r="K80" s="134"/>
-      <c r="L80" s="132"/>
-      <c r="M80" s="132"/>
-      <c r="N80" s="132"/>
-      <c r="O80" s="132"/>
-      <c r="P80" s="102"/>
-      <c r="Q80" s="102"/>
-      <c r="R80" s="135"/>
-      <c r="S80" s="135"/>
-      <c r="T80" s="135"/>
-      <c r="U80" s="135"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="100">
-        <v>2</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C81" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="49">
-        <v>7</v>
-      </c>
-      <c r="H81" s="65"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="130"/>
-      <c r="K81" s="134"/>
-      <c r="L81" s="132"/>
-      <c r="M81" s="132"/>
-      <c r="N81" s="132"/>
-      <c r="O81" s="132"/>
-      <c r="P81" s="102"/>
-      <c r="Q81" s="102"/>
-      <c r="R81" s="135"/>
-      <c r="S81" s="135"/>
-      <c r="T81" s="135"/>
-      <c r="U81" s="135"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="100">
-        <v>3</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C82" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="54">
+      <c r="C89" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="112"/>
+      <c r="F89" s="112"/>
+      <c r="G89" s="112"/>
+      <c r="H89" s="54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="81">
         <v>8</v>
       </c>
-      <c r="H82" s="65"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="130"/>
-      <c r="K82" s="134"/>
-      <c r="L82" s="132"/>
-      <c r="M82" s="132"/>
-      <c r="N82" s="132"/>
-      <c r="O82" s="132"/>
-      <c r="P82" s="102"/>
-      <c r="Q82" s="102"/>
-      <c r="R82" s="135"/>
-      <c r="S82" s="135"/>
-      <c r="T82" s="135"/>
-      <c r="U82" s="135"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="100">
-        <v>4</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="C83" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="49">
-        <v>9</v>
-      </c>
-      <c r="H83" s="65"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="136"/>
-      <c r="K83" s="136"/>
-      <c r="L83" s="136"/>
-      <c r="M83" s="136"/>
-      <c r="N83" s="137"/>
-      <c r="O83" s="138"/>
-      <c r="P83" s="135"/>
-      <c r="Q83" s="135"/>
-      <c r="R83" s="135"/>
-      <c r="S83" s="135"/>
-      <c r="T83" s="135"/>
-      <c r="U83" s="135"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="100">
-        <v>5</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C84" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="80"/>
-      <c r="E84" s="80"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="49">
-        <v>10</v>
-      </c>
-      <c r="H84" s="65"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="136"/>
-      <c r="K84" s="136"/>
-      <c r="L84" s="136"/>
-      <c r="M84" s="136"/>
-      <c r="N84" s="137"/>
-      <c r="O84" s="138"/>
-      <c r="P84" s="135"/>
-      <c r="Q84" s="135"/>
-      <c r="R84" s="135"/>
-      <c r="S84" s="135"/>
-      <c r="T84" s="135"/>
-      <c r="U84" s="135"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="100">
-        <v>6</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C85" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="D85" s="80"/>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="49">
-        <v>11</v>
-      </c>
-      <c r="H85" s="65"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="76"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="76"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="66"/>
-      <c r="P85" s="65"/>
-      <c r="Q85" s="65"/>
-      <c r="R85" s="65"/>
-      <c r="S85" s="65"/>
-      <c r="T85" s="65"/>
-      <c r="U85" s="65"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H86" s="65"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="66"/>
-      <c r="M86" s="66"/>
-      <c r="N86" s="66"/>
-      <c r="O86" s="66"/>
-      <c r="P86" s="65"/>
-      <c r="Q86" s="65"/>
-      <c r="R86" s="65"/>
-      <c r="S86" s="65"/>
-      <c r="T86" s="65"/>
-      <c r="U86" s="65"/>
-    </row>
-    <row r="87" spans="1:21" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H87" s="65"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="66"/>
-      <c r="M87" s="66"/>
-      <c r="N87" s="66"/>
-      <c r="O87" s="66"/>
-      <c r="P87" s="65"/>
-      <c r="Q87" s="65"/>
-      <c r="R87" s="65"/>
-      <c r="S87" s="65"/>
-      <c r="T87" s="65"/>
-      <c r="U87" s="65"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B88" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="D89" s="77"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="100">
-        <v>1</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="C90" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
-      <c r="F90" s="80"/>
-      <c r="G90" s="49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="100">
-        <v>2</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C91" s="80" t="s">
-        <v>278</v>
-      </c>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
-      <c r="F91" s="80"/>
-      <c r="G91" s="49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="100">
-        <v>3</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="100">
-        <v>4</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" s="80" t="s">
-        <v>280</v>
-      </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="100">
-        <v>5</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C94" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="D94" s="80"/>
-      <c r="E94" s="80"/>
-      <c r="F94" s="80"/>
-      <c r="G94" s="49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="100">
-        <v>6</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="C95" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="D95" s="80"/>
-      <c r="E95" s="80"/>
-      <c r="F95" s="80"/>
-      <c r="G95" s="54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="100">
-        <v>7</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="C96" s="80" t="s">
+      <c r="C90" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="D96" s="80"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="80"/>
-      <c r="G96" s="54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="100">
-        <v>8</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D97" s="80"/>
-      <c r="E97" s="80"/>
-      <c r="F97" s="80"/>
-      <c r="G97" s="49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="7"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="7"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="7"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="7"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="7"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="7"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="R73:U73"/>
-    <mergeCell ref="R74:U74"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="R76:U76"/>
-    <mergeCell ref="R77:U77"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
+  <mergeCells count="109">
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="M71:P71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4645,52 +4584,52 @@
         <v>40</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I2" s="59"/>
     </row>
@@ -4699,13 +4638,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>0</v>
@@ -4803,74 +4742,74 @@
   <sheetData>
     <row r="1" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B1" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="H1" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>124</v>
-      </c>
       <c r="I1" s="61" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="64" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>0</v>
@@ -4882,10 +4821,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I3" s="63" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L3" s="61"/>
     </row>
@@ -4894,7 +4833,7 @@
         <v>20000</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C4" s="49">
         <v>1000</v>
@@ -4924,7 +4863,7 @@
         <v>20001</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C5" s="49">
         <v>1000</v>
@@ -4954,7 +4893,7 @@
         <v>20002</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C6" s="49">
         <v>1000</v>
@@ -4984,7 +4923,7 @@
         <v>20003</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C7" s="49">
         <v>1000</v>
@@ -5014,7 +4953,7 @@
         <v>20004</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C8" s="49">
         <v>1500</v>
@@ -5044,7 +4983,7 @@
         <v>20005</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C9" s="49">
         <v>1500</v>
@@ -5074,7 +5013,7 @@
         <v>20006</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C10" s="49">
         <v>1500</v>
@@ -5103,7 +5042,7 @@
         <v>20007</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C11" s="49">
         <v>1500</v>
@@ -5132,7 +5071,7 @@
         <v>20008</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C12" s="49">
         <v>3000</v>
@@ -5161,7 +5100,7 @@
         <v>20009</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C13" s="49">
         <v>5000</v>
@@ -5216,60 +5155,60 @@
   <sheetData>
     <row r="1" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B1" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="73" t="s">
+      <c r="I1" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="J1" s="74" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="75" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F2" s="75"/>
       <c r="G2" s="75"/>
       <c r="H2" s="75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I2" s="75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J2" s="75" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -5289,7 +5228,7 @@
         <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>24</v>
@@ -5315,10 +5254,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -5347,10 +5286,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -5379,10 +5318,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -5411,10 +5350,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -5443,10 +5382,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -5475,10 +5414,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -5507,10 +5446,10 @@
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5539,10 +5478,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -5562,19 +5501,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C12" s="2">
         <v>30008</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -5594,19 +5533,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C13" s="2">
         <v>30009</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -5626,19 +5565,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C14" s="2">
         <v>30010</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -5684,27 +5623,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="72" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>41</v>
@@ -6474,16 +6413,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="99" x14ac:dyDescent="0.3">
@@ -6491,13 +6430,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -7275,7 +7214,6 @@
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -7283,52 +7221,52 @@
         <v>40</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="103"/>
+        <v>96</v>
+      </c>
+      <c r="L1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -7342,7 +7280,7 @@
         <v>65000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2">
         <v>10</v>
@@ -7365,7 +7303,7 @@
         <v>65001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
@@ -7388,7 +7326,7 @@
         <v>65002</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
@@ -7411,7 +7349,7 @@
         <v>65003</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
@@ -7422,7 +7360,7 @@
       <c r="H6" s="2">
         <v>6</v>
       </c>
-      <c r="L6" s="115"/>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -7435,7 +7373,7 @@
         <v>65004</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
@@ -7446,30 +7384,30 @@
       <c r="H7" s="2">
         <v>10</v>
       </c>
-      <c r="L7" s="115"/>
+      <c r="L7" s="93"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="106"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="95"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="106"/>
-      <c r="C13" s="117"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="95"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="106"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="95"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="106"/>
-      <c r="C15" s="117"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="95"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="116"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="96"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7482,7 +7420,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D247F50B-E2EB-4FFE-8673-38CF74992127}">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="D93" sqref="D93"/>
@@ -7496,837 +7434,785 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="108" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="86" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="85">
         <v>10000</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="85" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="108" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107">
+    <row r="3" spans="1:3" s="86" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="85">
         <v>10001</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109">
+      <c r="A4" s="87">
         <v>20000</v>
       </c>
-      <c r="B4" s="109" t="s">
-        <v>208</v>
+      <c r="B4" s="87" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109">
+      <c r="A5" s="87">
         <v>20001</v>
       </c>
-      <c r="B5" s="109" t="s">
-        <v>209</v>
+      <c r="B5" s="87" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109">
+      <c r="A6" s="87">
         <v>20002</v>
       </c>
-      <c r="B6" s="109" t="s">
-        <v>210</v>
+      <c r="B6" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109">
+      <c r="A7" s="87">
         <v>20003</v>
       </c>
-      <c r="B7" s="109" t="s">
-        <v>211</v>
+      <c r="B7" s="87" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109">
+      <c r="A8" s="87">
         <v>20004</v>
       </c>
-      <c r="B8" s="109" t="s">
-        <v>227</v>
+      <c r="B8" s="87" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109">
+      <c r="A9" s="87">
         <v>20005</v>
       </c>
-      <c r="B9" s="109" t="s">
-        <v>228</v>
+      <c r="B9" s="87" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109">
+      <c r="A10" s="87">
         <v>20006</v>
       </c>
-      <c r="B10" s="109" t="s">
-        <v>229</v>
+      <c r="B10" s="87" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109">
+      <c r="A11" s="87">
         <v>20007</v>
       </c>
-      <c r="B11" s="109" t="s">
-        <v>230</v>
+      <c r="B11" s="87" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="109">
+      <c r="A12" s="87">
         <v>20008</v>
       </c>
-      <c r="B12" s="109" t="s">
-        <v>231</v>
+      <c r="B12" s="87" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109">
+      <c r="A13" s="87">
         <v>20009</v>
       </c>
-      <c r="B13" s="109" t="s">
-        <v>232</v>
+      <c r="B13" s="87" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110">
+      <c r="A14" s="88">
         <v>30000</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="88" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110">
+      <c r="A15" s="88">
         <v>30001</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="88" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110">
+      <c r="A16" s="88">
         <v>30002</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="88" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="88">
         <v>30003</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="88" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="110">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="88">
         <v>30004</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="110">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="88">
         <v>30005</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="88" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="110">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="88">
         <v>30006</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="88">
         <v>30007</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="110">
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="88">
         <v>30008</v>
       </c>
-      <c r="B22" s="110" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110">
+      <c r="B22" s="88" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="88">
         <v>30009</v>
       </c>
-      <c r="B23" s="110" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110">
+      <c r="B23" s="88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="88">
         <v>30010</v>
       </c>
-      <c r="B24" s="110" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="126">
+      <c r="B24" s="88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="103">
         <v>40000</v>
       </c>
-      <c r="B25" s="126" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="103"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="126">
+      <c r="B25" s="103" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="103">
         <v>40001</v>
       </c>
-      <c r="B26" s="126" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="103"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="126">
+      <c r="B26" s="103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="103">
         <v>40002</v>
       </c>
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="103"/>
-    </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="126">
+    </row>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="103">
         <v>40003</v>
       </c>
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="103"/>
-    </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126">
+    </row>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="103">
         <v>40004</v>
       </c>
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="103"/>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="126">
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="103">
         <v>40005</v>
       </c>
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="103"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="127">
+    </row>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="104">
         <v>50001</v>
       </c>
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="103"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="127">
+    </row>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="104">
         <v>50002</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="103"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="127">
+    </row>
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="104">
         <v>50003</v>
       </c>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="103"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="127">
+    </row>
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="104">
         <v>50004</v>
       </c>
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="103"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="127">
+    </row>
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="104">
         <v>50005</v>
       </c>
-      <c r="B35" s="127" t="s">
+      <c r="B35" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="103"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="127">
+    </row>
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="104">
         <v>50006</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="103"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="120">
+    </row>
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="97">
         <v>60000</v>
       </c>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="120">
+    </row>
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="97">
         <v>60001</v>
       </c>
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="98" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="120">
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="97">
         <v>60002</v>
       </c>
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="98" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="120">
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="97">
         <v>60003</v>
       </c>
-      <c r="B40" s="121" t="s">
+      <c r="B40" s="98" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="122">
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="99">
         <v>60004</v>
       </c>
-      <c r="B41" s="123" t="s">
+      <c r="B41" s="100" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="124">
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="101">
         <v>65000</v>
       </c>
-      <c r="B42" s="124" t="s">
+      <c r="B42" s="101" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="124">
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="101">
         <v>65001</v>
       </c>
-      <c r="B43" s="124" t="s">
+      <c r="B43" s="101" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="124">
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="101">
         <v>65002</v>
       </c>
-      <c r="B44" s="124" t="s">
+      <c r="B44" s="101" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="124">
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="101">
         <v>65003</v>
       </c>
-      <c r="B45" s="124" t="s">
+      <c r="B45" s="101" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="125">
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="102">
         <v>65004</v>
       </c>
-      <c r="B46" s="125" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="111"/>
-      <c r="B48" s="111"/>
+      <c r="B46" s="102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="89"/>
+      <c r="B47" s="89"/>
+    </row>
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="89"/>
+      <c r="B48" s="89"/>
     </row>
     <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="111"/>
-      <c r="B49" s="111"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="89"/>
     </row>
     <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="111"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="89"/>
     </row>
     <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="89"/>
     </row>
     <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="89"/>
+      <c r="B52" s="89"/>
     </row>
     <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="89"/>
     </row>
     <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="89"/>
     </row>
     <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="111"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="89"/>
     </row>
     <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="111"/>
-      <c r="B56" s="111"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="89"/>
     </row>
     <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="111"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="89"/>
     </row>
     <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="111"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="89"/>
     </row>
     <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="111"/>
-      <c r="B59" s="111"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="89"/>
     </row>
     <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="111"/>
-      <c r="B60" s="111"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="89"/>
     </row>
     <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="111"/>
-      <c r="B61" s="111"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="89"/>
     </row>
     <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="111"/>
-      <c r="B62" s="111"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="89"/>
     </row>
     <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="111"/>
-      <c r="B63" s="111"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="89"/>
     </row>
     <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="111"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="89"/>
     </row>
     <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="111"/>
-      <c r="B65" s="111"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="89"/>
     </row>
     <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="111"/>
-      <c r="B66" s="111"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="89"/>
     </row>
     <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="111"/>
-      <c r="B67" s="111"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="89"/>
     </row>
     <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="111"/>
-      <c r="B68" s="112"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="90"/>
     </row>
     <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="111"/>
-      <c r="B69" s="112"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="90"/>
     </row>
     <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="111"/>
-      <c r="B70" s="112"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="90"/>
     </row>
     <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="111"/>
-      <c r="B71" s="112"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="90"/>
     </row>
     <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="111"/>
-      <c r="B72" s="112"/>
+      <c r="A72" s="89"/>
+      <c r="B72" s="90"/>
     </row>
     <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="111"/>
-      <c r="B73" s="112"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="90"/>
     </row>
     <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="111"/>
-      <c r="B74" s="112"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="90"/>
     </row>
     <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="111"/>
-      <c r="B75" s="112"/>
+      <c r="A75" s="89"/>
+      <c r="B75" s="90"/>
     </row>
     <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="111"/>
-      <c r="B76" s="112"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="90"/>
     </row>
     <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="113"/>
-      <c r="B77" s="114"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="92"/>
     </row>
     <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="113"/>
-      <c r="B78" s="114"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="92"/>
     </row>
     <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="113"/>
-      <c r="B79" s="114"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="92"/>
     </row>
     <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="113"/>
-      <c r="B80" s="114"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="92"/>
     </row>
     <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="113"/>
-      <c r="B81" s="114"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="92"/>
     </row>
     <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="113"/>
-      <c r="B82" s="114"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="92"/>
     </row>
     <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="113"/>
-      <c r="B83" s="114"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="92"/>
     </row>
     <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="113"/>
-      <c r="B84" s="114"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="92"/>
     </row>
     <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="113"/>
-      <c r="B85" s="114"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="92"/>
     </row>
     <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="113"/>
-      <c r="B86" s="114"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="92"/>
     </row>
     <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="113"/>
-      <c r="B87" s="114"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="92"/>
     </row>
     <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="113"/>
-      <c r="B88" s="114"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="92"/>
     </row>
     <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="113"/>
-      <c r="B89" s="114"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="92"/>
     </row>
     <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="113"/>
-      <c r="B90" s="114"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="92"/>
     </row>
     <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="113"/>
-      <c r="B91" s="114"/>
+      <c r="A91" s="91"/>
+      <c r="B91" s="92"/>
     </row>
     <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="113"/>
-      <c r="B92" s="114"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="92"/>
     </row>
     <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="113"/>
-      <c r="B93" s="114"/>
+      <c r="A93" s="91"/>
+      <c r="B93" s="92"/>
     </row>
     <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="113"/>
-      <c r="B94" s="114"/>
+      <c r="A94" s="91"/>
+      <c r="B94" s="92"/>
     </row>
     <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="113"/>
-      <c r="B95" s="114"/>
+      <c r="A95" s="91"/>
+      <c r="B95" s="92"/>
     </row>
     <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="113"/>
-      <c r="B96" s="114"/>
+      <c r="A96" s="91"/>
+      <c r="B96" s="92"/>
     </row>
     <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="113"/>
-      <c r="B97" s="113"/>
+      <c r="A97" s="91"/>
+      <c r="B97" s="91"/>
     </row>
     <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="113"/>
-      <c r="B98" s="113"/>
+      <c r="A98" s="91"/>
+      <c r="B98" s="91"/>
     </row>
     <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="113"/>
-      <c r="B99" s="113"/>
+      <c r="A99" s="91"/>
+      <c r="B99" s="91"/>
     </row>
     <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="113"/>
-      <c r="B100" s="113"/>
+      <c r="A100" s="91"/>
+      <c r="B100" s="91"/>
     </row>
     <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="113"/>
-      <c r="B101" s="113"/>
+      <c r="A101" s="91"/>
+      <c r="B101" s="91"/>
     </row>
     <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="113"/>
-      <c r="B102" s="113"/>
+      <c r="A102" s="91"/>
+      <c r="B102" s="91"/>
     </row>
     <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="113"/>
-      <c r="B103" s="113"/>
+      <c r="A103" s="91"/>
+      <c r="B103" s="91"/>
     </row>
     <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="113"/>
-      <c r="B104" s="113"/>
+      <c r="A104" s="91"/>
+      <c r="B104" s="91"/>
     </row>
     <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="113"/>
-      <c r="B105" s="113"/>
+      <c r="A105" s="91"/>
+      <c r="B105" s="91"/>
     </row>
     <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="113"/>
-      <c r="B106" s="113"/>
+      <c r="A106" s="91"/>
+      <c r="B106" s="91"/>
     </row>
     <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="113"/>
-      <c r="B107" s="114"/>
+      <c r="A107" s="91"/>
+      <c r="B107" s="92"/>
     </row>
     <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="113"/>
-      <c r="B108" s="114"/>
+      <c r="A108" s="91"/>
+      <c r="B108" s="92"/>
     </row>
     <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="113"/>
-      <c r="B109" s="114"/>
+      <c r="A109" s="91"/>
+      <c r="B109" s="92"/>
     </row>
     <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="113"/>
-      <c r="B110" s="114"/>
+      <c r="A110" s="91"/>
+      <c r="B110" s="92"/>
     </row>
     <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="113"/>
-      <c r="B111" s="114"/>
+      <c r="A111" s="91"/>
+      <c r="B111" s="92"/>
     </row>
     <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="113"/>
-      <c r="B112" s="114"/>
+      <c r="A112" s="91"/>
+      <c r="B112" s="92"/>
     </row>
     <row r="113" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="113"/>
-      <c r="B113" s="114"/>
+      <c r="A113" s="91"/>
+      <c r="B113" s="92"/>
     </row>
     <row r="114" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="113"/>
-      <c r="B114" s="114"/>
+      <c r="A114" s="91"/>
+      <c r="B114" s="92"/>
     </row>
     <row r="115" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="113"/>
-      <c r="B115" s="114"/>
+      <c r="A115" s="91"/>
+      <c r="B115" s="92"/>
     </row>
     <row r="116" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="113"/>
-      <c r="B116" s="114"/>
+      <c r="A116" s="91"/>
+      <c r="B116" s="92"/>
     </row>
     <row r="117" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="113"/>
-      <c r="B117" s="114"/>
+      <c r="A117" s="91"/>
+      <c r="B117" s="92"/>
     </row>
     <row r="118" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="113"/>
-      <c r="B118" s="114"/>
+      <c r="A118" s="91"/>
+      <c r="B118" s="92"/>
     </row>
     <row r="119" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="113"/>
-      <c r="B119" s="114"/>
+      <c r="A119" s="91"/>
+      <c r="B119" s="92"/>
     </row>
     <row r="120" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="113"/>
-      <c r="B120" s="114"/>
+      <c r="A120" s="91"/>
+      <c r="B120" s="92"/>
     </row>
     <row r="121" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="113"/>
-      <c r="B121" s="114"/>
+      <c r="A121" s="91"/>
+      <c r="B121" s="92"/>
     </row>
     <row r="122" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="113"/>
-      <c r="B122" s="114"/>
+      <c r="A122" s="91"/>
+      <c r="B122" s="92"/>
     </row>
     <row r="123" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="113"/>
-      <c r="B123" s="114"/>
+      <c r="A123" s="91"/>
+      <c r="B123" s="92"/>
     </row>
     <row r="124" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="113"/>
-      <c r="B124" s="114"/>
+      <c r="A124" s="91"/>
+      <c r="B124" s="92"/>
     </row>
     <row r="125" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="113"/>
-      <c r="B125" s="114"/>
+      <c r="A125" s="91"/>
+      <c r="B125" s="92"/>
     </row>
     <row r="126" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="113"/>
-      <c r="B126" s="114"/>
+      <c r="A126" s="91"/>
+      <c r="B126" s="92"/>
     </row>
     <row r="127" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="113"/>
-      <c r="B127" s="114"/>
+      <c r="A127" s="91"/>
+      <c r="B127" s="92"/>
     </row>
     <row r="128" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="113"/>
-      <c r="B128" s="114"/>
+      <c r="A128" s="91"/>
+      <c r="B128" s="92"/>
     </row>
     <row r="129" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="113"/>
-      <c r="B129" s="114"/>
+      <c r="A129" s="91"/>
+      <c r="B129" s="92"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="104">
+      <c r="A130" s="82">
         <v>60000</v>
       </c>
-      <c r="B130" s="106" t="s">
+      <c r="B130" s="84" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="104">
+      <c r="A131" s="82">
         <v>60001</v>
       </c>
-      <c r="B131" s="106" t="s">
+      <c r="B131" s="84" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="104">
+      <c r="A132" s="82">
         <v>60002</v>
       </c>
-      <c r="B132" s="106" t="s">
+      <c r="B132" s="84" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="104">
+      <c r="A133" s="82">
         <v>60003</v>
       </c>
-      <c r="B133" s="106" t="s">
+      <c r="B133" s="84" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="105">
+      <c r="A134" s="83">
         <v>60004</v>
       </c>
-      <c r="B134" s="116" t="s">
+      <c r="B134" s="94" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="117">
+      <c r="A135" s="95">
         <v>65000</v>
       </c>
-      <c r="B135" s="117" t="s">
+      <c r="B135" s="95" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="99" x14ac:dyDescent="0.3">
-      <c r="A136" s="117">
+      <c r="A136" s="95">
         <v>65001</v>
       </c>
-      <c r="B136" s="117" t="s">
+      <c r="B136" s="95" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="117">
+      <c r="A137" s="95">
         <v>65002</v>
       </c>
-      <c r="B137" s="117" t="s">
+      <c r="B137" s="95" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="117">
+      <c r="A138" s="95">
         <v>65003</v>
       </c>
-      <c r="B138" s="117" t="s">
+      <c r="B138" s="95" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A139" s="118">
+      <c r="A139" s="96">
         <v>65004</v>
       </c>
-      <c r="B139" s="118" t="s">
-        <v>53</v>
+      <c r="B139" s="96" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -8353,142 +8239,142 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B2" s="50">
         <v>4</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B3" s="50">
         <v>4</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B4" s="50">
         <v>1</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B5" s="50">
         <v>4</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B6" s="50">
         <v>8</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B7" s="57">
         <v>28</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B10" s="57">
         <v>1</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">

--- a/contents/Luna/잔월_테이블_04_05.xlsx
+++ b/contents/Luna/잔월_테이블_04_05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wepatens\contents\Luna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCF46A3-D212-4D2F-B7BE-D75C98191D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993CF5FA-39F8-440A-8C0C-8F305F7495EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="5" r:id="rId1"/>
@@ -23,6 +23,13 @@
     <sheet name="스키마" sheetId="10" r:id="rId8"/>
     <sheet name="정수값" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">몬스터!$A$1:$I$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">표4[#All]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">스키마!$A$1:$B$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'스텟 증가'!$A$1:$D$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">캐릭터!$A$1:$H$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="293">
   <si>
     <t>방어력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1757,7 +1764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2000,29 +2007,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2033,30 +2079,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2065,26 +2087,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2488,7 +2490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E1EDD1-0607-41DE-B1FD-BD342E7B8138}">
   <dimension ref="B2:V95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
@@ -2518,33 +2520,33 @@
         <v>51</v>
       </c>
       <c r="L3" s="20"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>140</v>
       </c>
       <c r="L4" s="20"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>139</v>
       </c>
       <c r="L5" s="20"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="L6" s="20"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
@@ -2554,9 +2556,9 @@
       <c r="L7" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="80" t="s">
@@ -2589,22 +2591,22 @@
       <c r="C9" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="115"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
       <c r="G9" s="49" t="s">
         <v>192</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="M9" s="125" t="s">
+      <c r="M9" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
       <c r="P9" t="s">
         <v>278</v>
       </c>
@@ -2616,22 +2618,22 @@
       <c r="C10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="109"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="49" t="s">
         <v>193</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="M10" s="112" t="s">
+      <c r="M10" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
       <c r="P10" t="s">
         <v>278</v>
       </c>
@@ -2643,22 +2645,22 @@
       <c r="C11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="109"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
       <c r="G11" s="49" t="s">
         <v>192</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="M11" s="112" t="s">
+      <c r="M11" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
       <c r="P11" t="s">
         <v>278</v>
       </c>
@@ -2670,22 +2672,22 @@
       <c r="C12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="109"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
       <c r="G12" s="49" t="s">
         <v>192</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="M12" s="112" t="s">
+      <c r="M12" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
       <c r="P12" t="s">
         <v>278</v>
       </c>
@@ -2697,22 +2699,22 @@
       <c r="C13" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="109"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="49" t="s">
         <v>192</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="M13" s="112" t="s">
+      <c r="M13" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
       <c r="P13" t="s">
         <v>278</v>
       </c>
@@ -2724,11 +2726,11 @@
       <c r="C14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="109"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="49" t="s">
         <v>192</v>
       </c>
@@ -2736,11 +2738,11 @@
       <c r="L14" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="M14" s="108" t="s">
+      <c r="M14" s="112" t="s">
         <v>275</v>
       </c>
-      <c r="N14" s="110"/>
-      <c r="O14" s="109"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="114"/>
       <c r="P14" t="s">
         <v>278</v>
       </c>
@@ -2752,11 +2754,11 @@
       <c r="C15" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="110"/>
-      <c r="F15" s="109"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="49" t="s">
         <v>192</v>
       </c>
@@ -2764,11 +2766,11 @@
       <c r="L15" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="M15" s="108" t="s">
+      <c r="M15" s="112" t="s">
         <v>277</v>
       </c>
-      <c r="N15" s="110"/>
-      <c r="O15" s="109"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="114"/>
       <c r="P15" t="s">
         <v>279</v>
       </c>
@@ -2780,11 +2782,11 @@
       <c r="C16" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="109"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="114"/>
       <c r="G16" s="49" t="s">
         <v>192</v>
       </c>
@@ -2792,11 +2794,11 @@
       <c r="L16" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="M16" s="127" t="s">
+      <c r="M16" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="N16" s="128"/>
-      <c r="O16" s="129"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="134"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="81">
@@ -2805,11 +2807,11 @@
       <c r="C17" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="109"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="49" t="s">
         <v>192</v>
       </c>
@@ -2817,11 +2819,11 @@
       <c r="L17" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="M17" s="127" t="s">
+      <c r="M17" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="N17" s="128"/>
-      <c r="O17" s="129"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="134"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C18" s="23"/>
@@ -2861,9 +2863,9 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
@@ -2872,9 +2874,9 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="135"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C24" s="23" t="s">
@@ -2884,9 +2886,9 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="134"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="23" t="s">
         <v>133</v>
       </c>
@@ -2909,9 +2911,9 @@
         <v>157</v>
       </c>
       <c r="H25" s="36"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="138"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="80" t="s">
         <v>269</v>
       </c>
@@ -2933,18 +2935,18 @@
       <c r="C26" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="115"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="121"/>
       <c r="G26" s="49" t="s">
         <v>158</v>
       </c>
       <c r="H26" s="20"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="108"/>
       <c r="L26" s="81">
         <v>1</v>
       </c>
@@ -2966,18 +2968,18 @@
       <c r="C27" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="49" t="s">
         <v>193</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="108"/>
       <c r="L27" s="81">
         <v>2</v>
       </c>
@@ -2999,18 +3001,18 @@
       <c r="C28" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
       <c r="G28" s="49" t="s">
         <v>192</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="133"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="108"/>
       <c r="L28" s="81">
         <v>3</v>
       </c>
@@ -3032,17 +3034,17 @@
       <c r="C29" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="14"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="81">
@@ -3051,17 +3053,17 @@
       <c r="C30" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="112" t="s">
+      <c r="D30" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
       <c r="G30" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="81">
@@ -3070,11 +3072,11 @@
       <c r="C31" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="112" t="s">
+      <c r="D31" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
       <c r="G31" s="49" t="s">
         <v>192</v>
       </c>
@@ -3087,11 +3089,11 @@
       <c r="C32" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="108" t="s">
+      <c r="D32" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="110"/>
-      <c r="F32" s="109"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114"/>
       <c r="G32" s="49" t="s">
         <v>192</v>
       </c>
@@ -3104,11 +3106,11 @@
       <c r="C33" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="108" t="s">
+      <c r="D33" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="110"/>
-      <c r="F33" s="109"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="114"/>
       <c r="G33" s="49" t="s">
         <v>192</v>
       </c>
@@ -3121,11 +3123,11 @@
       <c r="C34" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="112" t="s">
+      <c r="D34" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
       <c r="G34" s="49" t="s">
         <v>192</v>
       </c>
@@ -3133,9 +3135,9 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="23"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
@@ -3169,12 +3171,12 @@
       <c r="C40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="121" t="s">
+      <c r="D40" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="122"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="128"/>
       <c r="H40" s="48" t="s">
         <v>157</v>
       </c>
@@ -3186,12 +3188,12 @@
       <c r="C41" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D41" s="112" t="s">
+      <c r="D41" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
       <c r="H41" s="49" t="s">
         <v>281</v>
       </c>
@@ -3203,12 +3205,12 @@
       <c r="C42" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="112" t="s">
+      <c r="D42" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
       <c r="H42" s="49" t="s">
         <v>193</v>
       </c>
@@ -3221,12 +3223,12 @@
       <c r="C43" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="112" t="s">
+      <c r="D43" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
       <c r="H43" s="49" t="s">
         <v>192</v>
       </c>
@@ -3238,12 +3240,12 @@
       <c r="C44" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="112" t="s">
+      <c r="D44" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="49" t="s">
         <v>193</v>
       </c>
@@ -3255,12 +3257,12 @@
       <c r="C45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="112" t="s">
+      <c r="D45" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
       <c r="H45" s="49" t="s">
         <v>193</v>
       </c>
@@ -3272,12 +3274,12 @@
       <c r="C46" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="112" t="s">
+      <c r="D46" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
       <c r="H46" s="49" t="s">
         <v>192</v>
       </c>
@@ -3289,12 +3291,12 @@
       <c r="C47" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
       <c r="H47" s="49" t="s">
         <v>192</v>
       </c>
@@ -3306,12 +3308,12 @@
       <c r="C48" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="112" t="s">
+      <c r="D48" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
       <c r="H48" s="49" t="s">
         <v>192</v>
       </c>
@@ -3323,12 +3325,12 @@
       <c r="C49" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="112" t="s">
+      <c r="D49" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
       <c r="H49" s="49" t="s">
         <v>192</v>
       </c>
@@ -3336,10 +3338,10 @@
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="C50" s="70"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
     </row>
     <row r="52" spans="2:22" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="19" t="s">
@@ -3405,10 +3407,10 @@
       <c r="C55" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="120" t="s">
+      <c r="D55" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="120"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="9"/>
       <c r="G55" s="12"/>
       <c r="H55" s="48" t="s">
@@ -3444,12 +3446,12 @@
       <c r="C56" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D56" s="130" t="s">
+      <c r="D56" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="131"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
       <c r="H56" s="49" t="s">
         <v>281</v>
       </c>
@@ -3483,12 +3485,12 @@
       <c r="C57" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D57" s="112" t="s">
+      <c r="D57" s="115" t="s">
         <v>257</v>
       </c>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
       <c r="H57" s="49" t="s">
         <v>281</v>
       </c>
@@ -3522,12 +3524,12 @@
       <c r="C58" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="112" t="s">
+      <c r="D58" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
       <c r="H58" s="49" t="s">
         <v>198</v>
       </c>
@@ -3561,12 +3563,12 @@
       <c r="C59" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="112" t="s">
+      <c r="D59" s="115" t="s">
         <v>259</v>
       </c>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115"/>
       <c r="H59" s="49" t="s">
         <v>281</v>
       </c>
@@ -3600,12 +3602,12 @@
       <c r="C60" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D60" s="112" t="s">
+      <c r="D60" s="115" t="s">
         <v>260</v>
       </c>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="49" t="s">
         <v>281</v>
       </c>
@@ -3646,16 +3648,16 @@
       <c r="L61" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M61" s="108" t="s">
+      <c r="M61" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N61" s="110"/>
-      <c r="O61" s="110"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="108">
+      <c r="N61" s="113"/>
+      <c r="O61" s="113"/>
+      <c r="P61" s="114"/>
+      <c r="Q61" s="112">
         <v>40005</v>
       </c>
-      <c r="R61" s="109"/>
+      <c r="R61" s="114"/>
       <c r="S61" s="65"/>
       <c r="T61" s="65"/>
       <c r="U61" s="65"/>
@@ -3674,16 +3676,16 @@
       <c r="L62" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="M62" s="108" t="s">
+      <c r="M62" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="N62" s="110"/>
-      <c r="O62" s="110"/>
-      <c r="P62" s="109"/>
-      <c r="Q62" s="108">
+      <c r="N62" s="113"/>
+      <c r="O62" s="113"/>
+      <c r="P62" s="114"/>
+      <c r="Q62" s="112">
         <v>50001</v>
       </c>
-      <c r="R62" s="109"/>
+      <c r="R62" s="114"/>
       <c r="S62" s="65"/>
       <c r="T62" s="65"/>
       <c r="U62" s="65"/>
@@ -3696,10 +3698,10 @@
       <c r="C63" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="123" t="s">
+      <c r="D63" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="120"/>
+      <c r="E63" s="123"/>
       <c r="F63" s="9"/>
       <c r="G63" s="12"/>
       <c r="H63" s="48" t="s">
@@ -3713,16 +3715,16 @@
       <c r="L63" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="M63" s="108" t="s">
+      <c r="M63" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="N63" s="110"/>
-      <c r="O63" s="110"/>
-      <c r="P63" s="109"/>
-      <c r="Q63" s="108">
+      <c r="N63" s="113"/>
+      <c r="O63" s="113"/>
+      <c r="P63" s="114"/>
+      <c r="Q63" s="112">
         <v>50002</v>
       </c>
-      <c r="R63" s="109"/>
+      <c r="R63" s="114"/>
       <c r="S63" s="65"/>
       <c r="T63" s="65"/>
       <c r="U63" s="65"/>
@@ -3735,12 +3737,12 @@
       <c r="C64" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="112" t="s">
+      <c r="D64" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="112"/>
-      <c r="F64" s="112"/>
-      <c r="G64" s="112"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="115"/>
       <c r="H64" s="49">
         <v>0</v>
       </c>
@@ -3752,16 +3754,16 @@
       <c r="L64" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="M64" s="108" t="s">
+      <c r="M64" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="N64" s="110"/>
-      <c r="O64" s="110"/>
-      <c r="P64" s="109"/>
-      <c r="Q64" s="108">
+      <c r="N64" s="113"/>
+      <c r="O64" s="113"/>
+      <c r="P64" s="114"/>
+      <c r="Q64" s="112">
         <v>50003</v>
       </c>
-      <c r="R64" s="109"/>
+      <c r="R64" s="114"/>
       <c r="S64" s="65"/>
       <c r="T64" s="65"/>
       <c r="U64" s="65"/>
@@ -3774,12 +3776,12 @@
       <c r="C65" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D65" s="112" t="s">
+      <c r="D65" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
       <c r="H65" s="49">
         <v>1</v>
       </c>
@@ -3791,16 +3793,16 @@
       <c r="L65" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M65" s="108" t="s">
+      <c r="M65" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="N65" s="110"/>
-      <c r="O65" s="110"/>
-      <c r="P65" s="109"/>
-      <c r="Q65" s="108">
+      <c r="N65" s="113"/>
+      <c r="O65" s="113"/>
+      <c r="P65" s="114"/>
+      <c r="Q65" s="112">
         <v>50004</v>
       </c>
-      <c r="R65" s="109"/>
+      <c r="R65" s="114"/>
       <c r="S65" s="65"/>
       <c r="T65" s="65"/>
       <c r="U65" s="65"/>
@@ -3813,12 +3815,12 @@
       <c r="C66" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="112" t="s">
+      <c r="D66" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
-      <c r="G66" s="112"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115"/>
       <c r="H66" s="54">
         <v>2</v>
       </c>
@@ -3830,20 +3832,20 @@
       <c r="L66" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="M66" s="108" t="s">
+      <c r="M66" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="N66" s="110"/>
-      <c r="O66" s="110"/>
-      <c r="P66" s="109"/>
-      <c r="Q66" s="108">
+      <c r="N66" s="113"/>
+      <c r="O66" s="113"/>
+      <c r="P66" s="114"/>
+      <c r="Q66" s="112">
         <v>50005</v>
       </c>
-      <c r="R66" s="109"/>
-      <c r="S66" s="126"/>
-      <c r="T66" s="126"/>
-      <c r="U66" s="126"/>
-      <c r="V66" s="126"/>
+      <c r="R66" s="114"/>
+      <c r="S66" s="111"/>
+      <c r="T66" s="111"/>
+      <c r="U66" s="111"/>
+      <c r="V66" s="111"/>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="81">
@@ -3852,12 +3854,12 @@
       <c r="C67" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="112" t="s">
+      <c r="D67" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="115"/>
+      <c r="G67" s="115"/>
       <c r="H67" s="49">
         <v>3</v>
       </c>
@@ -3869,20 +3871,20 @@
       <c r="L67" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="112" t="s">
+      <c r="M67" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="N67" s="112"/>
-      <c r="O67" s="112"/>
-      <c r="P67" s="112"/>
-      <c r="Q67" s="112">
+      <c r="N67" s="115"/>
+      <c r="O67" s="115"/>
+      <c r="P67" s="115"/>
+      <c r="Q67" s="115">
         <v>50006</v>
       </c>
-      <c r="R67" s="112"/>
-      <c r="S67" s="126"/>
-      <c r="T67" s="126"/>
-      <c r="U67" s="126"/>
-      <c r="V67" s="126"/>
+      <c r="R67" s="115"/>
+      <c r="S67" s="111"/>
+      <c r="T67" s="111"/>
+      <c r="U67" s="111"/>
+      <c r="V67" s="111"/>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="81">
@@ -3891,12 +3893,12 @@
       <c r="C68" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="112" t="s">
+      <c r="D68" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="112"/>
-      <c r="F68" s="112"/>
-      <c r="G68" s="112"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="115"/>
+      <c r="G68" s="115"/>
       <c r="H68" s="49">
         <v>4</v>
       </c>
@@ -3904,16 +3906,16 @@
       <c r="J68" s="44"/>
       <c r="K68" s="107"/>
       <c r="L68" s="20"/>
-      <c r="M68" s="113"/>
-      <c r="N68" s="113"/>
-      <c r="O68" s="113"/>
-      <c r="P68" s="113"/>
-      <c r="Q68" s="111"/>
-      <c r="R68" s="111"/>
-      <c r="S68" s="126"/>
-      <c r="T68" s="126"/>
-      <c r="U68" s="126"/>
-      <c r="V68" s="126"/>
+      <c r="M68" s="116"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="116"/>
+      <c r="P68" s="116"/>
+      <c r="Q68" s="124"/>
+      <c r="R68" s="124"/>
+      <c r="S68" s="111"/>
+      <c r="T68" s="111"/>
+      <c r="U68" s="111"/>
+      <c r="V68" s="111"/>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="81">
@@ -3922,12 +3924,12 @@
       <c r="C69" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="112" t="s">
+      <c r="D69" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="112"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="115"/>
       <c r="H69" s="49">
         <v>5</v>
       </c>
@@ -3935,38 +3937,38 @@
       <c r="J69" s="44"/>
       <c r="K69" s="107"/>
       <c r="L69" s="20"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="113"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="111"/>
-      <c r="R69" s="111"/>
-      <c r="S69" s="126"/>
-      <c r="T69" s="126"/>
-      <c r="U69" s="126"/>
-      <c r="V69" s="126"/>
+      <c r="M69" s="116"/>
+      <c r="N69" s="116"/>
+      <c r="O69" s="116"/>
+      <c r="P69" s="116"/>
+      <c r="Q69" s="124"/>
+      <c r="R69" s="124"/>
+      <c r="S69" s="111"/>
+      <c r="T69" s="111"/>
+      <c r="U69" s="111"/>
+      <c r="V69" s="111"/>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="C70" s="44"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="113"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="116"/>
       <c r="I70" s="65"/>
       <c r="J70" s="66"/>
       <c r="K70" s="107"/>
       <c r="L70" s="20"/>
-      <c r="M70" s="113"/>
-      <c r="N70" s="113"/>
-      <c r="O70" s="113"/>
-      <c r="P70" s="113"/>
-      <c r="Q70" s="111"/>
-      <c r="R70" s="111"/>
-      <c r="S70" s="126"/>
-      <c r="T70" s="126"/>
-      <c r="U70" s="126"/>
-      <c r="V70" s="126"/>
+      <c r="M70" s="116"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="116"/>
+      <c r="P70" s="116"/>
+      <c r="Q70" s="124"/>
+      <c r="R70" s="124"/>
+      <c r="S70" s="111"/>
+      <c r="T70" s="111"/>
+      <c r="U70" s="111"/>
+      <c r="V70" s="111"/>
     </row>
     <row r="71" spans="2:22" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
@@ -3982,16 +3984,16 @@
       <c r="J71" s="66"/>
       <c r="K71" s="107"/>
       <c r="L71" s="20"/>
-      <c r="M71" s="113"/>
-      <c r="N71" s="113"/>
-      <c r="O71" s="113"/>
-      <c r="P71" s="113"/>
-      <c r="Q71" s="111"/>
-      <c r="R71" s="111"/>
-      <c r="S71" s="126"/>
-      <c r="T71" s="126"/>
-      <c r="U71" s="126"/>
-      <c r="V71" s="126"/>
+      <c r="M71" s="116"/>
+      <c r="N71" s="116"/>
+      <c r="O71" s="116"/>
+      <c r="P71" s="116"/>
+      <c r="Q71" s="124"/>
+      <c r="R71" s="124"/>
+      <c r="S71" s="111"/>
+      <c r="T71" s="111"/>
+      <c r="U71" s="111"/>
+      <c r="V71" s="111"/>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="80" t="s">
@@ -4000,12 +4002,12 @@
       <c r="C72" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="116" t="s">
+      <c r="D72" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="117"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="118"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="130"/>
+      <c r="G72" s="131"/>
       <c r="H72" s="69" t="s">
         <v>157</v>
       </c>
@@ -4013,12 +4015,12 @@
       <c r="J72" s="36"/>
       <c r="K72" s="107"/>
       <c r="L72" s="20"/>
-      <c r="M72" s="113"/>
-      <c r="N72" s="113"/>
-      <c r="O72" s="113"/>
-      <c r="P72" s="113"/>
-      <c r="Q72" s="111"/>
-      <c r="R72" s="111"/>
+      <c r="M72" s="116"/>
+      <c r="N72" s="116"/>
+      <c r="O72" s="116"/>
+      <c r="P72" s="116"/>
+      <c r="Q72" s="124"/>
+      <c r="R72" s="124"/>
       <c r="S72" s="65"/>
       <c r="T72" s="65"/>
       <c r="U72" s="65"/>
@@ -4031,12 +4033,12 @@
       <c r="C73" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="112" t="s">
+      <c r="D73" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="112"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="112"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="115"/>
       <c r="H73" s="49">
         <v>6</v>
       </c>
@@ -4044,12 +4046,12 @@
       <c r="J73" s="46"/>
       <c r="K73" s="107"/>
       <c r="L73" s="20"/>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="113"/>
-      <c r="P73" s="113"/>
-      <c r="Q73" s="111"/>
-      <c r="R73" s="111"/>
+      <c r="M73" s="116"/>
+      <c r="N73" s="116"/>
+      <c r="O73" s="116"/>
+      <c r="P73" s="116"/>
+      <c r="Q73" s="124"/>
+      <c r="R73" s="124"/>
       <c r="S73" s="65"/>
       <c r="T73" s="65"/>
       <c r="U73" s="65"/>
@@ -4062,21 +4064,21 @@
       <c r="C74" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D74" s="112" t="s">
+      <c r="D74" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="112"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="112"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="115"/>
       <c r="H74" s="49">
         <v>7</v>
       </c>
       <c r="I74" s="65"/>
       <c r="J74" s="46"/>
-      <c r="K74" s="124"/>
-      <c r="L74" s="124"/>
-      <c r="M74" s="124"/>
-      <c r="N74" s="124"/>
+      <c r="K74" s="117"/>
+      <c r="L74" s="117"/>
+      <c r="M74" s="117"/>
+      <c r="N74" s="117"/>
       <c r="O74" s="7"/>
       <c r="P74" s="66"/>
       <c r="Q74" s="65"/>
@@ -4093,21 +4095,21 @@
       <c r="C75" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D75" s="112" t="s">
+      <c r="D75" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="112"/>
-      <c r="F75" s="112"/>
-      <c r="G75" s="112"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="115"/>
+      <c r="G75" s="115"/>
       <c r="H75" s="54">
         <v>8</v>
       </c>
       <c r="I75" s="65"/>
       <c r="J75" s="46"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="124"/>
-      <c r="M75" s="124"/>
-      <c r="N75" s="124"/>
+      <c r="K75" s="117"/>
+      <c r="L75" s="117"/>
+      <c r="M75" s="117"/>
+      <c r="N75" s="117"/>
       <c r="O75" s="7"/>
       <c r="P75" s="66"/>
       <c r="Q75" s="65"/>
@@ -4124,21 +4126,21 @@
       <c r="C76" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="D76" s="112" t="s">
+      <c r="D76" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="E76" s="112"/>
-      <c r="F76" s="112"/>
-      <c r="G76" s="112"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
       <c r="H76" s="49">
         <v>9</v>
       </c>
       <c r="I76" s="65"/>
       <c r="J76" s="20"/>
-      <c r="K76" s="124"/>
-      <c r="L76" s="124"/>
-      <c r="M76" s="124"/>
-      <c r="N76" s="124"/>
+      <c r="K76" s="117"/>
+      <c r="L76" s="117"/>
+      <c r="M76" s="117"/>
+      <c r="N76" s="117"/>
       <c r="O76" s="7"/>
       <c r="P76" s="66"/>
       <c r="Q76" s="65"/>
@@ -4155,12 +4157,12 @@
       <c r="C77" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D77" s="112" t="s">
+      <c r="D77" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="115"/>
+      <c r="G77" s="115"/>
       <c r="H77" s="49">
         <v>10</v>
       </c>
@@ -4186,12 +4188,12 @@
       <c r="C78" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D78" s="112" t="s">
+      <c r="D78" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="112"/>
-      <c r="F78" s="112"/>
-      <c r="G78" s="112"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="115"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="49">
         <v>11</v>
       </c>
@@ -4241,10 +4243,10 @@
       <c r="C82" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="120" t="s">
+      <c r="D82" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="120"/>
+      <c r="E82" s="123"/>
       <c r="F82" s="9"/>
       <c r="G82" s="12"/>
       <c r="H82" s="48" t="s">
@@ -4258,12 +4260,12 @@
       <c r="C83" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D83" s="112" t="s">
+      <c r="D83" s="115" t="s">
         <v>271</v>
       </c>
-      <c r="E83" s="112"/>
-      <c r="F83" s="112"/>
-      <c r="G83" s="112"/>
+      <c r="E83" s="115"/>
+      <c r="F83" s="115"/>
+      <c r="G83" s="115"/>
       <c r="H83" s="49" t="s">
         <v>281</v>
       </c>
@@ -4275,12 +4277,12 @@
       <c r="C84" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="112" t="s">
+      <c r="D84" s="115" t="s">
         <v>272</v>
       </c>
-      <c r="E84" s="112"/>
-      <c r="F84" s="112"/>
-      <c r="G84" s="112"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
+      <c r="G84" s="115"/>
       <c r="H84" s="49" t="s">
         <v>192</v>
       </c>
@@ -4292,12 +4294,12 @@
       <c r="C85" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D85" s="112" t="s">
+      <c r="D85" s="115" t="s">
         <v>273</v>
       </c>
-      <c r="E85" s="112"/>
-      <c r="F85" s="112"/>
-      <c r="G85" s="112"/>
+      <c r="E85" s="115"/>
+      <c r="F85" s="115"/>
+      <c r="G85" s="115"/>
       <c r="H85" s="49" t="s">
         <v>192</v>
       </c>
@@ -4309,12 +4311,12 @@
       <c r="C86" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D86" s="112" t="s">
+      <c r="D86" s="115" t="s">
         <v>274</v>
       </c>
-      <c r="E86" s="112"/>
-      <c r="F86" s="112"/>
-      <c r="G86" s="112"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="49" t="s">
         <v>192</v>
       </c>
@@ -4326,12 +4328,12 @@
       <c r="C87" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D87" s="112" t="s">
+      <c r="D87" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="E87" s="112"/>
-      <c r="F87" s="112"/>
-      <c r="G87" s="112"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="115"/>
+      <c r="G87" s="115"/>
       <c r="H87" s="49" t="s">
         <v>281</v>
       </c>
@@ -4343,12 +4345,12 @@
       <c r="C88" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D88" s="112" t="s">
+      <c r="D88" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="E88" s="112"/>
-      <c r="F88" s="112"/>
-      <c r="G88" s="112"/>
+      <c r="E88" s="115"/>
+      <c r="F88" s="115"/>
+      <c r="G88" s="115"/>
       <c r="H88" s="54" t="s">
         <v>172</v>
       </c>
@@ -4360,12 +4362,12 @@
       <c r="C89" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D89" s="112" t="s">
+      <c r="D89" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="E89" s="112"/>
-      <c r="F89" s="112"/>
-      <c r="G89" s="112"/>
+      <c r="E89" s="115"/>
+      <c r="F89" s="115"/>
+      <c r="G89" s="115"/>
       <c r="H89" s="54" t="s">
         <v>172</v>
       </c>
@@ -4377,12 +4379,12 @@
       <c r="C90" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="112" t="s">
+      <c r="D90" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="E90" s="112"/>
-      <c r="F90" s="112"/>
-      <c r="G90" s="112"/>
+      <c r="E90" s="115"/>
+      <c r="F90" s="115"/>
+      <c r="G90" s="115"/>
       <c r="H90" s="49" t="s">
         <v>281</v>
       </c>
@@ -4444,26 +4446,71 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D49:G49"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
@@ -4488,74 +4535,30 @@
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="D57:G57"/>
     <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M69:P69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4563,7 +4566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BDB458-838F-45BE-B403-4B3557881DF0}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4715,6 +4718,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4722,7 +4726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2B6416-C724-425A-BFE3-C7D9E8782D64}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B13"/>
     </sheetView>
   </sheetViews>
@@ -5127,6 +5131,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5134,7 +5139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -5598,7 +5603,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5606,7 +5611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30540F3C-07A4-4542-81FF-B4E0745D60B1}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
@@ -6382,6 +6387,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6389,7 +6395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750496FA-AEA6-40C0-A53E-698CC508CE7B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
@@ -7191,8 +7197,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7201,8 +7208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FC5AD9-3F1A-4FBC-9F43-0BD01B1BD1FC}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7412,8 +7419,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="6" man="1"/>
+  </colBreaks>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7422,8 +7433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D247F50B-E2EB-4FFE-8673-38CF74992127}">
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8136,88 +8147,52 @@
       <c r="B129" s="92"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="82">
-        <v>60000</v>
-      </c>
-      <c r="B130" s="84" t="s">
-        <v>27</v>
-      </c>
+      <c r="A130" s="82"/>
+      <c r="B130" s="84"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="82">
-        <v>60001</v>
-      </c>
-      <c r="B131" s="84" t="s">
-        <v>28</v>
-      </c>
+      <c r="A131" s="82"/>
+      <c r="B131" s="84"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="82">
-        <v>60002</v>
-      </c>
-      <c r="B132" s="84" t="s">
-        <v>29</v>
-      </c>
+      <c r="A132" s="82"/>
+      <c r="B132" s="84"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="82">
-        <v>60003</v>
-      </c>
-      <c r="B133" s="84" t="s">
-        <v>31</v>
-      </c>
+      <c r="A133" s="82"/>
+      <c r="B133" s="84"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="83">
-        <v>60004</v>
-      </c>
-      <c r="B134" s="94" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="95">
-        <v>65000</v>
-      </c>
-      <c r="B135" s="95" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="99" x14ac:dyDescent="0.3">
-      <c r="A136" s="95">
-        <v>65001</v>
-      </c>
-      <c r="B136" s="95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="95">
-        <v>65002</v>
-      </c>
-      <c r="B137" s="95" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="95">
-        <v>65003</v>
-      </c>
-      <c r="B138" s="95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A139" s="96">
-        <v>65004</v>
-      </c>
-      <c r="B139" s="96" t="s">
-        <v>52</v>
-      </c>
+      <c r="A134" s="83"/>
+      <c r="B134" s="94"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="95"/>
+      <c r="B135" s="95"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="95"/>
+      <c r="B136" s="95"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="95"/>
+      <c r="B137" s="95"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="95"/>
+      <c r="B138" s="95"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="96"/>
+      <c r="B139" s="96"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="46" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -8225,7 +8200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4046F081-B68E-413B-819E-3D9BA3C88642}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -8386,5 +8361,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/contents/Luna/잔월_테이블_04_05.xlsx
+++ b/contents/Luna/잔월_테이블_04_05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wepatens\contents\Luna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\Luna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993CF5FA-39F8-440A-8C0C-8F305F7495EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E60048-C189-4827-8BA8-01A72A51A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="5" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="정수값" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">메인!$A$1:$S$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">몬스터!$A$1:$I$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">표4[#All]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">무기!$A$1:$N$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">스키마!$A$1:$B$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'스텟 증가'!$A$1:$D$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">캐릭터!$A$1:$H$5</definedName>
@@ -1324,36 +1325,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="4"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1428,7 +1405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1517,24 +1494,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1764,7 +1723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1775,317 +1734,299 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2162,8 +2103,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7909F8CE-F527-41B5-AB06-370AF665C403}" name="표1" displayName="표1" ref="A1:D55" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
-  <autoFilter ref="A1:D55" xr:uid="{7909F8CE-F527-41B5-AB06-370AF665C403}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7909F8CE-F527-41B5-AB06-370AF665C403}" name="표1" displayName="표1" ref="A1:D56" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
+  <autoFilter ref="A1:D56" xr:uid="{7909F8CE-F527-41B5-AB06-370AF665C403}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{64152937-25B3-41FE-BC42-6FF124835C2B}" name="CharacterStatus_ID" dataDxfId="4"/>
     <tableColumn id="15" xr3:uid="{F82BC332-89DF-4F6A-BBF2-76C2D8BE4C4B}" name="CharacterStatus_Type" dataDxfId="3"/>
@@ -2192,9 +2133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2232,7 +2173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2338,7 +2279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2480,7 +2421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2488,2005 +2429,1953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E1EDD1-0607-41DE-B1FD-BD342E7B8138}">
-  <dimension ref="B2:V95"/>
+  <dimension ref="B2:V94"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="4" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="59" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="13" style="59" customWidth="1"/>
+    <col min="6" max="9" width="9" style="59"/>
+    <col min="10" max="10" width="9" style="59" customWidth="1"/>
+    <col min="11" max="11" width="9" style="59"/>
+    <col min="12" max="12" width="14.625" style="59" customWidth="1"/>
+    <col min="13" max="13" width="9" style="59"/>
+    <col min="14" max="14" width="11.625" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+      <c r="C3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="C4" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="C5" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L6" s="20"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C7" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="L7" s="20" t="s">
+      <c r="I7" s="105"/>
+      <c r="L7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="48" t="s">
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="108" t="s">
         <v>292</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="43"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="81">
+      <c r="B9" s="72">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="49" t="s">
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="M9" s="118" t="s">
+      <c r="M9" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" t="s">
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="59" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="81">
+      <c r="B10" s="72">
         <v>2</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="113"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="49" t="s">
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="M10" s="115" t="s">
+      <c r="M10" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" t="s">
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="59" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="81">
+      <c r="B11" s="72">
         <v>3</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="49" t="s">
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="M11" s="115" t="s">
+      <c r="M11" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" t="s">
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="59" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="81">
+      <c r="B12" s="72">
         <v>4</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="49" t="s">
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="M12" s="115" t="s">
+      <c r="M12" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" t="s">
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="59" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="81">
+      <c r="B13" s="72">
         <v>5</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="49" t="s">
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="M13" s="115" t="s">
+      <c r="M13" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" t="s">
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="59" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="81">
+      <c r="B14" s="72">
         <v>6</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="49" t="s">
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="17" t="s">
+      <c r="I14" s="105"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="M14" s="112" t="s">
+      <c r="M14" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="N14" s="113"/>
-      <c r="O14" s="114"/>
-      <c r="P14" t="s">
+      <c r="N14" s="75"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="59" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="81">
+      <c r="B15" s="72">
         <v>7</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="49" t="s">
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="17" t="s">
+      <c r="K15" s="78"/>
+      <c r="L15" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="M15" s="112" t="s">
+      <c r="M15" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="N15" s="113"/>
-      <c r="O15" s="114"/>
-      <c r="P15" t="s">
+      <c r="N15" s="75"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="59" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="81">
+      <c r="B16" s="72">
         <v>8</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="112" t="s">
+      <c r="D16" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="113"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="49" t="s">
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="17" t="s">
+      <c r="K16" s="78"/>
+      <c r="L16" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="M16" s="132" t="s">
+      <c r="M16" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="N16" s="133"/>
-      <c r="O16" s="134"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="81"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="81">
+      <c r="B17" s="72">
         <v>9</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="112" t="s">
+      <c r="D17" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="49" t="s">
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="17" t="s">
+      <c r="K17" s="78"/>
+      <c r="L17" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="M17" s="132" t="s">
+      <c r="M17" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="N17" s="133"/>
-      <c r="O17" s="134"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="81"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C18" s="23"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="K18" s="6"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="K18" s="78"/>
     </row>
     <row r="19" spans="2:16" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="K19" s="6"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="K19" s="78"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="K20" s="6"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="K20" s="78"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="K21" s="6"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="K21" s="78"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+      <c r="C22" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="14"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="K22" s="78"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+      <c r="C23" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="14"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="K23" s="78"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="23" t="s">
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="L24" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="M24" s="23"/>
-      <c r="P24" s="6"/>
+      <c r="M24" s="63"/>
+      <c r="P24" s="78"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="48" t="s">
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="80" t="s">
+      <c r="H25" s="61"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="N25" s="34" t="s">
+      <c r="N25" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="O25" s="34" t="s">
+      <c r="O25" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="P25" s="35"/>
+      <c r="P25" s="109"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="81">
+      <c r="B26" s="72">
         <v>1</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="119" t="s">
+      <c r="D26" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="120"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="49" t="s">
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="81">
+      <c r="H26" s="63"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="72">
         <v>1</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="86">
         <v>1</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="P26" s="79"/>
+      <c r="P26" s="87"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="81">
+      <c r="B27" s="72">
         <v>2</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="115" t="s">
+      <c r="D27" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="49" t="s">
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="81">
+      <c r="H27" s="63"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="72">
         <v>2</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="M27" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="88">
         <v>1.2</v>
       </c>
-      <c r="O27" s="76" t="s">
+      <c r="O27" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="P27" s="78"/>
+      <c r="P27" s="87"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="81">
+      <c r="B28" s="72">
         <v>3</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="49" t="s">
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="81">
+      <c r="H28" s="63"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="72">
         <v>3</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M28" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="N28" s="33">
+      <c r="N28" s="88">
         <v>1.5</v>
       </c>
-      <c r="O28" s="76" t="s">
+      <c r="O28" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="P28" s="78"/>
+      <c r="P28" s="87"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="81">
+      <c r="B29" s="72">
         <v>4</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="49" t="s">
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="81">
+      <c r="B30" s="72">
         <v>5</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="115" t="s">
+      <c r="D30" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="49" t="s">
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="78"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="81">
+      <c r="B31" s="72">
         <v>6</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="D31" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="49" t="s">
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="K31" s="6"/>
+      <c r="K31" s="78"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="81">
+      <c r="B32" s="72">
         <v>7</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="112" t="s">
+      <c r="D32" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="49" t="s">
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="K32" s="6"/>
+      <c r="K32" s="78"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="81">
+      <c r="B33" s="72">
         <v>8</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="112" t="s">
+      <c r="D33" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="113"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="49" t="s">
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="K33" s="6"/>
+      <c r="K33" s="78"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="81">
+      <c r="B34" s="72">
         <v>9</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="49" t="s">
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="K34" s="6"/>
+      <c r="K34" s="78"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C35" s="23"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="K35" s="6"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="K35" s="78"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C36" s="23"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="K36" s="6"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="K36" s="78"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="K37" s="6"/>
+      <c r="K37" s="78"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="K38" s="6"/>
+      <c r="D38" s="63"/>
+      <c r="K38" s="78"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="23"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="89"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="127" t="s">
+      <c r="D40" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="48" t="s">
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="108" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="81">
+      <c r="B41" s="72">
         <v>1</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="D41" s="115" t="s">
+      <c r="D41" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="49" t="s">
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="65" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="81">
+      <c r="B42" s="72">
         <v>2</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="115" t="s">
+      <c r="D42" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="49" t="s">
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="89"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="81">
+      <c r="B43" s="72">
         <v>3</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="115" t="s">
+      <c r="D43" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="49" t="s">
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="65" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="81">
+      <c r="B44" s="72">
         <v>4</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="115" t="s">
+      <c r="D44" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="49" t="s">
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="65" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="81">
+      <c r="B45" s="72">
         <v>5</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="115" t="s">
+      <c r="D45" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="49" t="s">
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="65" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="81">
+      <c r="B46" s="72">
         <v>6</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="115" t="s">
+      <c r="D46" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="49" t="s">
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="65" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="81">
+      <c r="B47" s="72">
         <v>7</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="115" t="s">
+      <c r="D47" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="49" t="s">
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="65" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="81">
+      <c r="B48" s="72">
         <v>8</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="115" t="s">
+      <c r="D48" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="49" t="s">
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="65" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B49" s="81">
+      <c r="B49" s="72">
         <v>9</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="115" t="s">
+      <c r="D49" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="49" t="s">
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="65" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
     </row>
     <row r="52" spans="2:22" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="65"/>
-      <c r="Q53" s="65"/>
-      <c r="R53" s="65"/>
-      <c r="S53" s="65"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="65"/>
-      <c r="V53" s="65"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="95"/>
+      <c r="R53" s="95"/>
+      <c r="S53" s="95"/>
+      <c r="T53" s="95"/>
+      <c r="U53" s="95"/>
+      <c r="V53" s="95"/>
     </row>
     <row r="54" spans="2:22" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="C54" s="105" t="s">
+      <c r="C54" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="105" t="s">
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="L54" s="68"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="65"/>
-      <c r="R54" s="65"/>
-      <c r="S54" s="65"/>
-      <c r="T54" s="65"/>
-      <c r="U54" s="65"/>
-      <c r="V54" s="65"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="95"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="123" t="s">
+      <c r="D55" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="123"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="48" t="s">
+      <c r="E55" s="116"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="80" t="s">
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="120" t="s">
         <v>269</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="L55" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="M55" s="45" t="s">
+      <c r="M55" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="N55" s="39"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="106" t="s">
+      <c r="N55" s="122"/>
+      <c r="O55" s="123"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="R55" s="106"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="65"/>
-      <c r="U55" s="65"/>
-      <c r="V55" s="65"/>
+      <c r="R55" s="124"/>
+      <c r="S55" s="95"/>
+      <c r="T55" s="95"/>
+      <c r="U55" s="95"/>
+      <c r="V55" s="95"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B56" s="81">
+      <c r="B56" s="72">
         <v>1</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="D56" s="125" t="s">
+      <c r="D56" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="49" t="s">
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="81">
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="113">
         <v>1</v>
       </c>
-      <c r="L56" s="15" t="s">
+      <c r="L56" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="M56" s="76" t="s">
+      <c r="M56" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="76">
+      <c r="N56" s="118"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="117">
         <v>40000</v>
       </c>
-      <c r="R56" s="78"/>
-      <c r="S56" s="65"/>
-      <c r="T56" s="65"/>
-      <c r="U56" s="65"/>
-      <c r="V56" s="65"/>
+      <c r="R56" s="119"/>
+      <c r="S56" s="95"/>
+      <c r="T56" s="95"/>
+      <c r="U56" s="95"/>
+      <c r="V56" s="95"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B57" s="81">
+      <c r="B57" s="72">
         <v>2</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="D57" s="115" t="s">
+      <c r="D57" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="49" t="s">
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="81">
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="72">
         <v>2</v>
       </c>
-      <c r="L57" s="15" t="s">
+      <c r="L57" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="M57" s="76" t="s">
+      <c r="M57" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="76">
+      <c r="N57" s="100"/>
+      <c r="O57" s="100"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="86">
         <v>40001</v>
       </c>
-      <c r="R57" s="78"/>
-      <c r="S57" s="65"/>
-      <c r="T57" s="65"/>
-      <c r="U57" s="65"/>
-      <c r="V57" s="65"/>
+      <c r="R57" s="87"/>
+      <c r="S57" s="95"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="95"/>
+      <c r="V57" s="95"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B58" s="81">
+      <c r="B58" s="72">
         <v>3</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="115" t="s">
+      <c r="D58" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="49" t="s">
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="81">
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="72">
         <v>3</v>
       </c>
-      <c r="L58" s="15" t="s">
+      <c r="L58" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="M58" s="76" t="s">
+      <c r="M58" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="76">
+      <c r="N58" s="100"/>
+      <c r="O58" s="100"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="86">
         <v>40002</v>
       </c>
-      <c r="R58" s="78"/>
-      <c r="S58" s="65"/>
-      <c r="T58" s="65"/>
-      <c r="U58" s="65"/>
-      <c r="V58" s="65"/>
+      <c r="R58" s="87"/>
+      <c r="S58" s="95"/>
+      <c r="T58" s="95"/>
+      <c r="U58" s="95"/>
+      <c r="V58" s="95"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B59" s="81">
+      <c r="B59" s="72">
         <v>4</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="115" t="s">
+      <c r="D59" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="49" t="s">
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="81">
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="72">
         <v>4</v>
       </c>
-      <c r="L59" s="15" t="s">
+      <c r="L59" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="M59" s="76" t="s">
+      <c r="M59" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="76">
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="86">
         <v>40003</v>
       </c>
-      <c r="R59" s="78"/>
-      <c r="S59" s="65"/>
-      <c r="T59" s="65"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="65"/>
+      <c r="R59" s="87"/>
+      <c r="S59" s="95"/>
+      <c r="T59" s="95"/>
+      <c r="U59" s="95"/>
+      <c r="V59" s="95"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B60" s="81">
+      <c r="B60" s="72">
         <v>5</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="D60" s="115" t="s">
+      <c r="D60" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="49" t="s">
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="81">
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="72">
         <v>5</v>
       </c>
-      <c r="L60" s="15" t="s">
+      <c r="L60" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="M60" s="76" t="s">
+      <c r="M60" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="N60" s="77"/>
-      <c r="O60" s="77"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="76">
+      <c r="N60" s="100"/>
+      <c r="O60" s="100"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="86">
         <v>40004</v>
       </c>
-      <c r="R60" s="78"/>
-      <c r="S60" s="65"/>
-      <c r="T60" s="65"/>
-      <c r="U60" s="65"/>
-      <c r="V60" s="65"/>
+      <c r="R60" s="87"/>
+      <c r="S60" s="95"/>
+      <c r="T60" s="95"/>
+      <c r="U60" s="95"/>
+      <c r="V60" s="95"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C61" s="20"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="81">
+      <c r="C61" s="63"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="82"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="72">
         <v>6</v>
       </c>
-      <c r="L61" s="15" t="s">
+      <c r="L61" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="M61" s="112" t="s">
+      <c r="M61" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="N61" s="113"/>
-      <c r="O61" s="113"/>
-      <c r="P61" s="114"/>
-      <c r="Q61" s="112">
+      <c r="N61" s="75"/>
+      <c r="O61" s="75"/>
+      <c r="P61" s="76"/>
+      <c r="Q61" s="74">
         <v>40005</v>
       </c>
-      <c r="R61" s="114"/>
-      <c r="S61" s="65"/>
-      <c r="T61" s="65"/>
-      <c r="U61" s="65"/>
-      <c r="V61" s="65"/>
+      <c r="R61" s="76"/>
+      <c r="S61" s="95"/>
+      <c r="T61" s="95"/>
+      <c r="U61" s="95"/>
+      <c r="V61" s="95"/>
     </row>
     <row r="62" spans="2:22" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="D62" s="70"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="81">
+      <c r="D62" s="92"/>
+      <c r="K62" s="72">
         <v>7</v>
       </c>
-      <c r="L62" s="16" t="s">
+      <c r="L62" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="M62" s="112" t="s">
+      <c r="M62" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="N62" s="113"/>
-      <c r="O62" s="113"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="112">
+      <c r="N62" s="75"/>
+      <c r="O62" s="75"/>
+      <c r="P62" s="76"/>
+      <c r="Q62" s="74">
         <v>50001</v>
       </c>
-      <c r="R62" s="114"/>
-      <c r="S62" s="65"/>
-      <c r="T62" s="65"/>
-      <c r="U62" s="65"/>
-      <c r="V62" s="65"/>
+      <c r="R62" s="76"/>
+      <c r="S62" s="95"/>
+      <c r="T62" s="95"/>
+      <c r="U62" s="95"/>
+      <c r="V62" s="95"/>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="122" t="s">
+      <c r="D63" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="123"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="48" t="s">
+      <c r="E63" s="116"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="I63" s="65"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="81">
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="72">
         <v>8</v>
       </c>
-      <c r="L63" s="16" t="s">
+      <c r="L63" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="M63" s="112" t="s">
+      <c r="M63" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="N63" s="113"/>
-      <c r="O63" s="113"/>
-      <c r="P63" s="114"/>
-      <c r="Q63" s="112">
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="76"/>
+      <c r="Q63" s="74">
         <v>50002</v>
       </c>
-      <c r="R63" s="114"/>
-      <c r="S63" s="65"/>
-      <c r="T63" s="65"/>
-      <c r="U63" s="65"/>
-      <c r="V63" s="65"/>
+      <c r="R63" s="76"/>
+      <c r="S63" s="95"/>
+      <c r="T63" s="95"/>
+      <c r="U63" s="95"/>
+      <c r="V63" s="95"/>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B64" s="81">
+      <c r="B64" s="72">
         <v>1</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="115" t="s">
+      <c r="D64" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="115"/>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="49">
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="65">
         <v>0</v>
       </c>
-      <c r="I64" s="65"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="81">
+      <c r="I64" s="95"/>
+      <c r="J64" s="95"/>
+      <c r="K64" s="72">
         <v>9</v>
       </c>
-      <c r="L64" s="16" t="s">
+      <c r="L64" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="M64" s="112" t="s">
+      <c r="M64" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="N64" s="113"/>
-      <c r="O64" s="113"/>
-      <c r="P64" s="114"/>
-      <c r="Q64" s="112">
+      <c r="N64" s="75"/>
+      <c r="O64" s="75"/>
+      <c r="P64" s="76"/>
+      <c r="Q64" s="74">
         <v>50003</v>
       </c>
-      <c r="R64" s="114"/>
-      <c r="S64" s="65"/>
-      <c r="T64" s="65"/>
-      <c r="U64" s="65"/>
-      <c r="V64" s="65"/>
+      <c r="R64" s="76"/>
+      <c r="S64" s="95"/>
+      <c r="T64" s="95"/>
+      <c r="U64" s="95"/>
+      <c r="V64" s="95"/>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B65" s="81">
+      <c r="B65" s="72">
         <v>2</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D65" s="115" t="s">
+      <c r="D65" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="49">
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="65">
         <v>1</v>
       </c>
-      <c r="I65" s="65"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="81">
+      <c r="I65" s="95"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="72">
         <v>10</v>
       </c>
-      <c r="L65" s="16" t="s">
+      <c r="L65" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="M65" s="112" t="s">
+      <c r="M65" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="N65" s="113"/>
-      <c r="O65" s="113"/>
-      <c r="P65" s="114"/>
-      <c r="Q65" s="112">
+      <c r="N65" s="75"/>
+      <c r="O65" s="75"/>
+      <c r="P65" s="76"/>
+      <c r="Q65" s="74">
         <v>50004</v>
       </c>
-      <c r="R65" s="114"/>
-      <c r="S65" s="65"/>
-      <c r="T65" s="65"/>
-      <c r="U65" s="65"/>
-      <c r="V65" s="65"/>
+      <c r="R65" s="76"/>
+      <c r="S65" s="95"/>
+      <c r="T65" s="95"/>
+      <c r="U65" s="95"/>
+      <c r="V65" s="95"/>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B66" s="81">
+      <c r="B66" s="72">
         <v>3</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="115" t="s">
+      <c r="D66" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="115"/>
-      <c r="F66" s="115"/>
-      <c r="G66" s="115"/>
-      <c r="H66" s="54">
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="106">
         <v>2</v>
       </c>
-      <c r="I66" s="65"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="81">
+      <c r="I66" s="95"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="72">
         <v>11</v>
       </c>
-      <c r="L66" s="16" t="s">
+      <c r="L66" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="M66" s="112" t="s">
+      <c r="M66" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="N66" s="113"/>
-      <c r="O66" s="113"/>
-      <c r="P66" s="114"/>
-      <c r="Q66" s="112">
+      <c r="N66" s="75"/>
+      <c r="O66" s="75"/>
+      <c r="P66" s="76"/>
+      <c r="Q66" s="74">
         <v>50005</v>
       </c>
-      <c r="R66" s="114"/>
-      <c r="S66" s="111"/>
-      <c r="T66" s="111"/>
-      <c r="U66" s="111"/>
-      <c r="V66" s="111"/>
+      <c r="R66" s="76"/>
+      <c r="S66" s="102"/>
+      <c r="T66" s="102"/>
+      <c r="U66" s="102"/>
+      <c r="V66" s="102"/>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B67" s="81">
+      <c r="B67" s="72">
         <v>4</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="115" t="s">
+      <c r="D67" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="115"/>
-      <c r="F67" s="115"/>
-      <c r="G67" s="115"/>
-      <c r="H67" s="49">
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="65">
         <v>3</v>
       </c>
-      <c r="I67" s="65"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="81">
+      <c r="I67" s="95"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="72">
         <v>12</v>
       </c>
-      <c r="L67" s="16" t="s">
+      <c r="L67" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="115" t="s">
+      <c r="M67" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="N67" s="115"/>
-      <c r="O67" s="115"/>
-      <c r="P67" s="115"/>
-      <c r="Q67" s="115">
+      <c r="N67" s="77"/>
+      <c r="O67" s="77"/>
+      <c r="P67" s="77"/>
+      <c r="Q67" s="77">
         <v>50006</v>
       </c>
-      <c r="R67" s="115"/>
-      <c r="S67" s="111"/>
-      <c r="T67" s="111"/>
-      <c r="U67" s="111"/>
-      <c r="V67" s="111"/>
+      <c r="R67" s="77"/>
+      <c r="S67" s="102"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="102"/>
+      <c r="V67" s="102"/>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B68" s="81">
+      <c r="B68" s="72">
         <v>5</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="115" t="s">
+      <c r="D68" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="115"/>
-      <c r="F68" s="115"/>
-      <c r="G68" s="115"/>
-      <c r="H68" s="49">
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="65">
         <v>4</v>
       </c>
-      <c r="I68" s="65"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="107"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="116"/>
-      <c r="P68" s="116"/>
-      <c r="Q68" s="124"/>
-      <c r="R68" s="124"/>
-      <c r="S68" s="111"/>
-      <c r="T68" s="111"/>
-      <c r="U68" s="111"/>
-      <c r="V68" s="111"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="85"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="O68" s="64"/>
+      <c r="P68" s="64"/>
+      <c r="Q68" s="93"/>
+      <c r="R68" s="93"/>
+      <c r="S68" s="102"/>
+      <c r="T68" s="102"/>
+      <c r="U68" s="102"/>
+      <c r="V68" s="102"/>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B69" s="81">
+      <c r="B69" s="72">
         <v>6</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="115" t="s">
+      <c r="D69" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E69" s="115"/>
-      <c r="F69" s="115"/>
-      <c r="G69" s="115"/>
-      <c r="H69" s="49">
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="65">
         <v>5</v>
       </c>
-      <c r="I69" s="65"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="107"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="116"/>
-      <c r="N69" s="116"/>
-      <c r="O69" s="116"/>
-      <c r="P69" s="116"/>
-      <c r="Q69" s="124"/>
-      <c r="R69" s="124"/>
-      <c r="S69" s="111"/>
-      <c r="T69" s="111"/>
-      <c r="U69" s="111"/>
-      <c r="V69" s="111"/>
+      <c r="I69" s="95"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="93"/>
+      <c r="R69" s="93"/>
+      <c r="S69" s="102"/>
+      <c r="T69" s="102"/>
+      <c r="U69" s="102"/>
+      <c r="V69" s="102"/>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B70" s="6"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="116"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="116"/>
-      <c r="G70" s="116"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="107"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="116"/>
-      <c r="N70" s="116"/>
-      <c r="O70" s="116"/>
-      <c r="P70" s="116"/>
-      <c r="Q70" s="124"/>
-      <c r="R70" s="124"/>
-      <c r="S70" s="111"/>
-      <c r="T70" s="111"/>
-      <c r="U70" s="111"/>
-      <c r="V70" s="111"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="I70" s="95"/>
+      <c r="J70" s="95"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="O70" s="64"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="93"/>
+      <c r="R70" s="93"/>
+      <c r="S70" s="102"/>
+      <c r="T70" s="102"/>
+      <c r="U70" s="102"/>
+      <c r="V70" s="102"/>
     </row>
     <row r="71" spans="2:22" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B71" s="6"/>
-      <c r="C71" s="68" t="s">
+      <c r="B71" s="78"/>
+      <c r="C71" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="107"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="116"/>
-      <c r="N71" s="116"/>
-      <c r="O71" s="116"/>
-      <c r="P71" s="116"/>
-      <c r="Q71" s="124"/>
-      <c r="R71" s="124"/>
-      <c r="S71" s="111"/>
-      <c r="T71" s="111"/>
-      <c r="U71" s="111"/>
-      <c r="V71" s="111"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="93"/>
+      <c r="R71" s="93"/>
+      <c r="S71" s="102"/>
+      <c r="T71" s="102"/>
+      <c r="U71" s="102"/>
+      <c r="V71" s="102"/>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B72" s="80" t="s">
+      <c r="B72" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="C72" s="69" t="s">
+      <c r="C72" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="129" t="s">
+      <c r="D72" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="130"/>
-      <c r="F72" s="130"/>
-      <c r="G72" s="131"/>
-      <c r="H72" s="69" t="s">
+      <c r="E72" s="115"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="115"/>
+      <c r="H72" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="I72" s="65"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="107"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="116"/>
-      <c r="N72" s="116"/>
-      <c r="O72" s="116"/>
-      <c r="P72" s="116"/>
-      <c r="Q72" s="124"/>
-      <c r="R72" s="124"/>
-      <c r="S72" s="65"/>
-      <c r="T72" s="65"/>
-      <c r="U72" s="65"/>
-      <c r="V72" s="65"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="93"/>
+      <c r="S72" s="95"/>
+      <c r="T72" s="95"/>
+      <c r="U72" s="95"/>
+      <c r="V72" s="95"/>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B73" s="81">
+      <c r="B73" s="72">
         <v>1</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="115" t="s">
+      <c r="D73" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="49">
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="65">
         <v>6</v>
       </c>
-      <c r="I73" s="65"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="107"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="116"/>
-      <c r="N73" s="116"/>
-      <c r="O73" s="116"/>
-      <c r="P73" s="116"/>
-      <c r="Q73" s="124"/>
-      <c r="R73" s="124"/>
-      <c r="S73" s="65"/>
-      <c r="T73" s="65"/>
-      <c r="U73" s="65"/>
-      <c r="V73" s="65"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="103"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="93"/>
+      <c r="R73" s="93"/>
+      <c r="S73" s="95"/>
+      <c r="T73" s="95"/>
+      <c r="U73" s="95"/>
+      <c r="V73" s="95"/>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B74" s="81">
+      <c r="B74" s="72">
         <v>2</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="D74" s="115" t="s">
+      <c r="D74" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="115"/>
-      <c r="F74" s="115"/>
-      <c r="G74" s="115"/>
-      <c r="H74" s="49">
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="65">
         <v>7</v>
       </c>
-      <c r="I74" s="65"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="117"/>
-      <c r="L74" s="117"/>
-      <c r="M74" s="117"/>
-      <c r="N74" s="117"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="66"/>
-      <c r="Q74" s="65"/>
-      <c r="R74" s="65"/>
-      <c r="S74" s="65"/>
-      <c r="T74" s="65"/>
-      <c r="U74" s="65"/>
-      <c r="V74" s="65"/>
+      <c r="I74" s="95"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="P74" s="95"/>
+      <c r="Q74" s="95"/>
+      <c r="R74" s="95"/>
+      <c r="S74" s="95"/>
+      <c r="T74" s="95"/>
+      <c r="U74" s="95"/>
+      <c r="V74" s="95"/>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B75" s="81">
+      <c r="B75" s="72">
         <v>3</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="D75" s="115" t="s">
+      <c r="D75" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="115"/>
-      <c r="F75" s="115"/>
-      <c r="G75" s="115"/>
-      <c r="H75" s="54">
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="106">
         <v>8</v>
       </c>
-      <c r="I75" s="65"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="117"/>
-      <c r="L75" s="117"/>
-      <c r="M75" s="117"/>
-      <c r="N75" s="117"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="66"/>
-      <c r="Q75" s="65"/>
-      <c r="R75" s="65"/>
-      <c r="S75" s="65"/>
-      <c r="T75" s="65"/>
-      <c r="U75" s="65"/>
-      <c r="V75" s="65"/>
+      <c r="I75" s="95"/>
+      <c r="J75" s="103"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="P75" s="95"/>
+      <c r="Q75" s="95"/>
+      <c r="R75" s="95"/>
+      <c r="S75" s="95"/>
+      <c r="T75" s="95"/>
+      <c r="U75" s="95"/>
+      <c r="V75" s="95"/>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B76" s="81">
+      <c r="B76" s="72">
         <v>4</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="D76" s="115" t="s">
+      <c r="D76" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="49">
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="65">
         <v>9</v>
       </c>
-      <c r="I76" s="65"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="117"/>
-      <c r="L76" s="117"/>
-      <c r="M76" s="117"/>
-      <c r="N76" s="117"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="66"/>
-      <c r="Q76" s="65"/>
-      <c r="R76" s="65"/>
-      <c r="S76" s="65"/>
-      <c r="T76" s="65"/>
-      <c r="U76" s="65"/>
-      <c r="V76" s="65"/>
+      <c r="I76" s="95"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="P76" s="95"/>
+      <c r="Q76" s="95"/>
+      <c r="R76" s="95"/>
+      <c r="S76" s="95"/>
+      <c r="T76" s="95"/>
+      <c r="U76" s="95"/>
+      <c r="V76" s="95"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B77" s="81">
+      <c r="B77" s="72">
         <v>5</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="D77" s="115" t="s">
+      <c r="D77" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115"/>
-      <c r="G77" s="115"/>
-      <c r="H77" s="49">
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="65">
         <v>10</v>
       </c>
-      <c r="I77" s="65"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
-      <c r="M77" s="66"/>
-      <c r="N77" s="66"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="65"/>
-      <c r="S77" s="65"/>
-      <c r="T77" s="65"/>
-      <c r="U77" s="65"/>
-      <c r="V77" s="65"/>
+      <c r="I77" s="95"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="95"/>
+      <c r="L77" s="95"/>
+      <c r="M77" s="95"/>
+      <c r="N77" s="95"/>
+      <c r="O77" s="95"/>
+      <c r="P77" s="95"/>
+      <c r="Q77" s="95"/>
+      <c r="R77" s="95"/>
+      <c r="S77" s="95"/>
+      <c r="T77" s="95"/>
+      <c r="U77" s="95"/>
+      <c r="V77" s="95"/>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B78" s="81">
+      <c r="B78" s="72">
         <v>6</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="D78" s="115" t="s">
+      <c r="D78" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="115"/>
-      <c r="F78" s="115"/>
-      <c r="G78" s="115"/>
-      <c r="H78" s="49">
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="65">
         <v>11</v>
       </c>
-      <c r="I78" s="65"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="66"/>
-      <c r="M78" s="66"/>
-      <c r="N78" s="66"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="66"/>
-      <c r="Q78" s="65"/>
-      <c r="R78" s="65"/>
-      <c r="S78" s="65"/>
-      <c r="T78" s="65"/>
-      <c r="U78" s="65"/>
-      <c r="V78" s="65"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
+      <c r="Q78" s="95"/>
+      <c r="R78" s="95"/>
+      <c r="S78" s="95"/>
+      <c r="T78" s="95"/>
+      <c r="U78" s="95"/>
+      <c r="V78" s="95"/>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="I79" s="65"/>
-      <c r="J79" s="66"/>
-      <c r="S79" s="65"/>
-      <c r="T79" s="65"/>
-      <c r="U79" s="65"/>
-      <c r="V79" s="65"/>
+      <c r="I79" s="95"/>
+      <c r="J79" s="95"/>
+      <c r="S79" s="95"/>
+      <c r="T79" s="95"/>
+      <c r="U79" s="95"/>
+      <c r="V79" s="95"/>
     </row>
     <row r="80" spans="2:22" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="I80" s="65"/>
-      <c r="J80" s="66"/>
-      <c r="S80" s="65"/>
-      <c r="T80" s="65"/>
-      <c r="U80" s="65"/>
-      <c r="V80" s="65"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C81" s="23" t="s">
+      <c r="I80" s="95"/>
+      <c r="J80" s="95"/>
+      <c r="S80" s="95"/>
+      <c r="T80" s="95"/>
+      <c r="U80" s="95"/>
+      <c r="V80" s="95"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="63" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="80" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="123" t="s">
+      <c r="D82" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="123"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="48" t="s">
+      <c r="E82" s="116"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="109"/>
+      <c r="H82" s="108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="72">
         <v>1</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="104" t="s">
         <v>270</v>
       </c>
-      <c r="D83" s="115" t="s">
+      <c r="D83" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
-      <c r="G83" s="115"/>
-      <c r="H83" s="49" t="s">
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="65" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="81">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" s="72">
         <v>2</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="115" t="s">
+      <c r="D84" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
-      <c r="G84" s="115"/>
-      <c r="H84" s="49" t="s">
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="65" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="81">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" s="72">
         <v>3</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="D85" s="115" t="s">
+      <c r="D85" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="E85" s="115"/>
-      <c r="F85" s="115"/>
-      <c r="G85" s="115"/>
-      <c r="H85" s="49" t="s">
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="65" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="81">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" s="72">
         <v>4</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="D86" s="115" t="s">
+      <c r="D86" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="49" t="s">
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="65" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="81">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" s="72">
         <v>5</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D87" s="115" t="s">
+      <c r="D87" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E87" s="115"/>
-      <c r="F87" s="115"/>
-      <c r="G87" s="115"/>
-      <c r="H87" s="49" t="s">
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="65" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="81">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" s="72">
         <v>6</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="D88" s="115" t="s">
+      <c r="D88" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E88" s="115"/>
-      <c r="F88" s="115"/>
-      <c r="G88" s="115"/>
-      <c r="H88" s="54" t="s">
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="101" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="81">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="72">
         <v>7</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="104" t="s">
         <v>290</v>
       </c>
-      <c r="D89" s="115" t="s">
+      <c r="D89" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E89" s="115"/>
-      <c r="F89" s="115"/>
-      <c r="G89" s="115"/>
-      <c r="H89" s="54" t="s">
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="101" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="81">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="72">
         <v>8</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="115" t="s">
+      <c r="D90" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="E90" s="115"/>
-      <c r="F90" s="115"/>
-      <c r="G90" s="115"/>
-      <c r="H90" s="49" t="s">
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="65" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="7"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="7"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="7"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="7"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="78"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="78"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="78"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C94" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D58:G58"/>
     <mergeCell ref="D90:G90"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D26:F26"/>
@@ -4511,50 +4400,47 @@
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="D47:G47"/>
     <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="M73:P73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4582,86 +4468,86 @@
     <col min="9" max="9" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="59"/>
-    </row>
-    <row r="3" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -4732,399 +4618,399 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="49"/>
+    <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="64" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:12" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="49">
+      <c r="A4" s="14">
         <v>20000</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="14">
         <v>1000</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="14">
         <v>70</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="14">
         <v>100</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="14">
         <v>4</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="14">
         <v>3</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="49">
+      <c r="A5" s="14">
         <v>20001</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="14">
         <v>1000</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="14">
         <v>80</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="14">
         <v>3</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="14">
         <v>100</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="14">
         <v>4</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="14">
         <v>0</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="14">
         <v>3</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
+      <c r="A6" s="14">
         <v>20002</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="14">
         <v>1000</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="14">
         <v>90</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="14">
         <v>5</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="14">
         <v>100</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="14">
         <v>4</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="14">
         <v>0</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="14">
         <v>3</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="49">
+      <c r="A7" s="14">
         <v>20003</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="14">
         <v>1000</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="14">
         <v>100</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="14">
         <v>7</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="14">
         <v>100</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="14">
         <v>4</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="14">
         <v>0</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="14">
         <v>3</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="49">
+      <c r="A8" s="14">
         <v>20004</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="14">
         <v>1500</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="14">
         <v>130</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="14">
         <v>100</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="14">
         <v>4</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="14">
         <v>1</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="14">
         <v>4</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
+      <c r="A9" s="14">
         <v>20005</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="14">
         <v>1500</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="14">
         <v>130</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="14">
         <v>3</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="14">
         <v>100</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="14">
         <v>4</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="14">
         <v>1</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="14">
         <v>4</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="49">
+      <c r="A10" s="14">
         <v>20006</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="14">
         <v>1500</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="14">
         <v>150</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="14">
         <v>5</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="14">
         <v>100</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="14">
         <v>4</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="14">
         <v>1</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="A11" s="14">
         <v>20007</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="14">
         <v>1500</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="14">
         <v>150</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="14">
         <v>7</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="14">
         <v>100</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="14">
         <v>4</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="14">
         <v>1</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="49">
+      <c r="A12" s="14">
         <v>20008</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="14">
         <v>3000</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="14">
         <v>200</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="14">
         <v>10</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="14">
         <v>100</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="14">
         <v>5</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="14">
         <v>2</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
+      <c r="A13" s="14">
         <v>20009</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="14">
         <v>5000</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="14">
         <v>300</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="14">
         <v>10</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="14">
         <v>100</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="14">
         <v>3</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="14">
         <v>2</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="14">
         <v>10</v>
       </c>
     </row>
@@ -5158,61 +5044,61 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="35" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5626,761 +5512,761 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="72" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:6" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="31" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="99" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47">
+      <c r="A3" s="13">
         <v>40000</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="13">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="13">
         <v>40000</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47">
+      <c r="A4" s="13">
         <v>40001</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="13">
         <v>40000</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47">
+      <c r="A5" s="13">
         <v>40002</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="13">
         <v>0</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="13">
         <v>40000</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47">
+      <c r="A6" s="13">
         <v>40003</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="13">
         <v>0</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="13">
         <v>40000</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47">
+      <c r="A7" s="13">
         <v>40004</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="13">
         <v>0</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="13">
         <v>40000</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47">
+      <c r="A8" s="13">
         <v>40005</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="13">
         <v>0</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="13">
         <v>40000</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47">
+      <c r="A9" s="13">
         <v>40006</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="13">
         <v>0</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="13">
         <v>40000</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
+      <c r="A10" s="13">
         <v>40007</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="13">
         <v>0</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="13">
         <v>40000</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
+      <c r="A11" s="13">
         <v>40008</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="13">
         <v>0</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="13">
         <v>40000</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
+      <c r="A12" s="13">
         <v>40009</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="13">
         <v>0</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="13">
         <v>40000</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
+      <c r="A13" s="13">
         <v>40010</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="13">
         <v>40001</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+      <c r="A14" s="13">
         <v>40011</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="13">
         <v>1</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="13">
         <v>40001</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47">
+      <c r="A15" s="13">
         <v>40012</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="13">
         <v>1</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="13">
         <v>40001</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47">
+      <c r="A16" s="13">
         <v>40013</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="13">
         <v>40001</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+      <c r="A17" s="13">
         <v>40014</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="13">
         <v>1</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="13">
         <v>40001</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47">
+      <c r="A18" s="13">
         <v>40015</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="13">
         <v>1</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="13">
         <v>40001</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47">
+      <c r="A19" s="13">
         <v>40016</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="13">
         <v>1</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="13">
         <v>40001</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
+      <c r="A20" s="13">
         <v>40017</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="13">
         <v>1</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="13">
         <v>40001</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47">
+      <c r="A21" s="13">
         <v>40018</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="13">
         <v>1</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="13">
         <v>40001</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47">
+      <c r="A22" s="13">
         <v>40019</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="13">
         <v>1</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="13">
         <v>40001</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47">
+      <c r="A23" s="13">
         <v>40020</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="13">
         <v>2</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="13">
         <v>40002</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47">
+      <c r="A24" s="13">
         <v>40021</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="13">
         <v>2</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="13">
         <v>40002</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47">
+      <c r="A25" s="13">
         <v>40022</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="13">
         <v>2</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="13">
         <v>40002</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
+      <c r="A26" s="13">
         <v>40023</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="13">
         <v>2</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="13">
         <v>40002</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47">
+      <c r="A27" s="13">
         <v>40024</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="13">
         <v>2</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="13">
         <v>40002</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47">
+      <c r="A28" s="13">
         <v>40025</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="13">
         <v>2</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="13">
         <v>40002</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47">
+      <c r="A29" s="13">
         <v>40026</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="13">
         <v>2</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="13">
         <v>40002</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
+      <c r="A30" s="13">
         <v>40027</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="13">
         <v>40002</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47">
+      <c r="A31" s="13">
         <v>40028</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="13">
         <v>2</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="13">
         <v>40002</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47">
+      <c r="A32" s="13">
         <v>40029</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="13">
         <v>2</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="13">
         <v>40002</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47">
+      <c r="A33" s="13">
         <v>40030</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="13">
         <v>3</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="13">
         <v>40003</v>
       </c>
-      <c r="D33" s="47">
+      <c r="D33" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47">
+      <c r="A34" s="13">
         <v>40031</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="13">
         <v>3</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="13">
         <v>40003</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47">
+      <c r="A35" s="13">
         <v>40032</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="13">
         <v>3</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="13">
         <v>40003</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47">
+      <c r="A36" s="13">
         <v>40033</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="13">
         <v>3</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="13">
         <v>40003</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47">
+      <c r="A37" s="13">
         <v>40034</v>
       </c>
-      <c r="B37" s="47">
+      <c r="B37" s="13">
         <v>3</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="13">
         <v>40003</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
+      <c r="A38" s="13">
         <v>40035</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="13">
         <v>3</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="13">
         <v>40003</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47">
+      <c r="A39" s="13">
         <v>40036</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="13">
         <v>3</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="13">
         <v>40003</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47">
+      <c r="A40" s="13">
         <v>40037</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="13">
         <v>3</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="13">
         <v>40003</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="47">
+      <c r="A41" s="13">
         <v>40038</v>
       </c>
-      <c r="B41" s="47">
+      <c r="B41" s="13">
         <v>3</v>
       </c>
-      <c r="C41" s="47">
+      <c r="C41" s="13">
         <v>40003</v>
       </c>
-      <c r="D41" s="47">
+      <c r="D41" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47">
+      <c r="A42" s="13">
         <v>40039</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="13">
         <v>3</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="13">
         <v>40003</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="47">
+      <c r="A43" s="13">
         <v>40040</v>
       </c>
-      <c r="B43" s="47">
+      <c r="B43" s="13">
         <v>4</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="13">
         <v>40004</v>
       </c>
-      <c r="D43" s="67">
+      <c r="D43" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47">
+      <c r="A44" s="13">
         <v>40041</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="13">
         <v>4</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C44" s="13">
         <v>40004</v>
       </c>
-      <c r="D44" s="47">
+      <c r="D44" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47">
+      <c r="A45" s="13">
         <v>40042</v>
       </c>
-      <c r="B45" s="47">
+      <c r="B45" s="13">
         <v>4</v>
       </c>
-      <c r="C45" s="47">
+      <c r="C45" s="13">
         <v>40004</v>
       </c>
-      <c r="D45" s="47">
+      <c r="D45" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="47">
+      <c r="A46" s="13">
         <v>40043</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="13">
         <v>5</v>
       </c>
-      <c r="C46" s="67">
+      <c r="C46" s="30">
         <v>40005</v>
       </c>
-      <c r="D46" s="47">
+      <c r="D46" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47">
+      <c r="A47" s="13">
         <v>40044</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="13">
         <v>5</v>
       </c>
-      <c r="C47" s="67">
+      <c r="C47" s="30">
         <v>40005</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47">
+      <c r="A48" s="13">
         <v>40045</v>
       </c>
-      <c r="B48" s="47">
+      <c r="B48" s="13">
         <v>5</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="30">
         <v>40005</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47">
+      <c r="A49" s="13">
         <v>40046</v>
       </c>
-      <c r="B49" s="47">
+      <c r="B49" s="13">
         <v>5</v>
       </c>
-      <c r="C49" s="67">
+      <c r="C49" s="30">
         <v>40005</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47">
+      <c r="A50" s="13">
         <v>40047</v>
       </c>
-      <c r="B50" s="47">
+      <c r="B50" s="13">
         <v>5</v>
       </c>
-      <c r="C50" s="67">
+      <c r="C50" s="30">
         <v>40005</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47">
+      <c r="A51" s="13">
         <v>40048</v>
       </c>
-      <c r="B51" s="47">
+      <c r="B51" s="13">
         <v>5</v>
       </c>
-      <c r="C51" s="67">
+      <c r="C51" s="30">
         <v>40005</v>
       </c>
-      <c r="D51" s="47">
+      <c r="D51" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47">
+      <c r="A52" s="13">
         <v>40049</v>
       </c>
-      <c r="B52" s="47">
+      <c r="B52" s="13">
         <v>5</v>
       </c>
-      <c r="C52" s="67">
+      <c r="C52" s="30">
         <v>40005</v>
       </c>
-      <c r="D52" s="47">
+      <c r="D52" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47">
+      <c r="A53" s="13">
         <v>40050</v>
       </c>
-      <c r="B53" s="47">
+      <c r="B53" s="13">
         <v>5</v>
       </c>
-      <c r="C53" s="67">
+      <c r="C53" s="30">
         <v>40005</v>
       </c>
-      <c r="D53" s="47">
+      <c r="D53" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="47">
+      <c r="A54" s="13">
         <v>40051</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="13">
         <v>5</v>
       </c>
-      <c r="C54" s="67">
+      <c r="C54" s="30">
         <v>40005</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="13">
         <v>5</v>
       </c>
     </row>
@@ -6393,10 +6279,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750496FA-AEA6-40C0-A53E-698CC508CE7B}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6418,57 +6304,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="99" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+    </row>
+    <row r="3" spans="1:15" ht="99" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>50000</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>50001</v>
+        <v>50000</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -6477,12 +6355,12 @@
         <v>50000</v>
       </c>
       <c r="D4" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -6491,12 +6369,12 @@
         <v>50000</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -6505,12 +6383,12 @@
         <v>50000</v>
       </c>
       <c r="D6" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -6519,12 +6397,12 @@
         <v>50000</v>
       </c>
       <c r="D7" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>50005</v>
+        <v>50004</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -6533,12 +6411,12 @@
         <v>50000</v>
       </c>
       <c r="D8" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>50006</v>
+        <v>50005</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -6547,12 +6425,12 @@
         <v>50000</v>
       </c>
       <c r="D9" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>50007</v>
+        <v>50006</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -6561,12 +6439,12 @@
         <v>50000</v>
       </c>
       <c r="D10" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>50008</v>
+        <v>50007</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -6575,12 +6453,12 @@
         <v>50000</v>
       </c>
       <c r="D11" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>50009</v>
+        <v>50008</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -6589,26 +6467,26 @@
         <v>50000</v>
       </c>
       <c r="D12" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>50001</v>
+        <v>50000</v>
       </c>
       <c r="D13" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>50011</v>
+        <v>50010</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -6617,12 +6495,12 @@
         <v>50001</v>
       </c>
       <c r="D14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>50012</v>
+        <v>50011</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -6631,12 +6509,12 @@
         <v>50001</v>
       </c>
       <c r="D15" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>50013</v>
+        <v>50012</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -6645,12 +6523,12 @@
         <v>50001</v>
       </c>
       <c r="D16" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>50014</v>
+        <v>50013</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -6659,12 +6537,12 @@
         <v>50001</v>
       </c>
       <c r="D17" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>50015</v>
+        <v>50014</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -6673,12 +6551,12 @@
         <v>50001</v>
       </c>
       <c r="D18" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>50016</v>
+        <v>50015</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -6687,12 +6565,12 @@
         <v>50001</v>
       </c>
       <c r="D19" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>50017</v>
+        <v>50016</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -6701,12 +6579,12 @@
         <v>50001</v>
       </c>
       <c r="D20" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>50018</v>
+        <v>50017</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -6715,12 +6593,12 @@
         <v>50001</v>
       </c>
       <c r="D21" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>50019</v>
+        <v>50018</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -6729,26 +6607,26 @@
         <v>50001</v>
       </c>
       <c r="D22" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>50020</v>
+        <v>50019</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>50002</v>
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>50001</v>
       </c>
       <c r="D23" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>50021</v>
+        <v>50020</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -6762,7 +6640,7 @@
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>50022</v>
+        <v>50021</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
@@ -6771,12 +6649,12 @@
         <v>50002</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>50023</v>
+        <v>50022</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -6790,7 +6668,7 @@
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>50024</v>
+        <v>50023</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
@@ -6799,12 +6677,12 @@
         <v>50002</v>
       </c>
       <c r="D27" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>50025</v>
+        <v>50024</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -6818,7 +6696,7 @@
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>50026</v>
+        <v>50025</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
@@ -6827,12 +6705,12 @@
         <v>50002</v>
       </c>
       <c r="D29" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>50027</v>
+        <v>50026</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -6846,7 +6724,7 @@
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>50028</v>
+        <v>50027</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
@@ -6855,12 +6733,12 @@
         <v>50002</v>
       </c>
       <c r="D31" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>50029</v>
+        <v>50028</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
@@ -6874,21 +6752,21 @@
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>50030</v>
+        <v>50029</v>
       </c>
       <c r="B33" s="2">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3">
-        <v>50003</v>
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>50002</v>
       </c>
       <c r="D33" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>50031</v>
+        <v>50030</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -6897,12 +6775,12 @@
         <v>50003</v>
       </c>
       <c r="D34" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>50032</v>
+        <v>50031</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
@@ -6911,12 +6789,12 @@
         <v>50003</v>
       </c>
       <c r="D35" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>50033</v>
+        <v>50032</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
@@ -6925,12 +6803,12 @@
         <v>50003</v>
       </c>
       <c r="D36" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>50034</v>
+        <v>50033</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
@@ -6939,12 +6817,12 @@
         <v>50003</v>
       </c>
       <c r="D37" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>50035</v>
+        <v>50034</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
@@ -6953,12 +6831,12 @@
         <v>50003</v>
       </c>
       <c r="D38" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>50036</v>
+        <v>50035</v>
       </c>
       <c r="B39" s="2">
         <v>3</v>
@@ -6967,12 +6845,12 @@
         <v>50003</v>
       </c>
       <c r="D39" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>50037</v>
+        <v>50036</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -6981,12 +6859,12 @@
         <v>50003</v>
       </c>
       <c r="D40" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>50038</v>
+        <v>50037</v>
       </c>
       <c r="B41" s="2">
         <v>3</v>
@@ -6995,12 +6873,12 @@
         <v>50003</v>
       </c>
       <c r="D41" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>50039</v>
+        <v>50038</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
@@ -7009,18 +6887,18 @@
         <v>50003</v>
       </c>
       <c r="D42" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>50040</v>
+        <v>50039</v>
       </c>
       <c r="B43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="3">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="D43" s="2">
         <v>50</v>
@@ -7028,7 +6906,7 @@
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>50041</v>
+        <v>50040</v>
       </c>
       <c r="B44" s="2">
         <v>4</v>
@@ -7037,12 +6915,12 @@
         <v>50004</v>
       </c>
       <c r="D44" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>50042</v>
+        <v>50041</v>
       </c>
       <c r="B45" s="2">
         <v>4</v>
@@ -7051,26 +6929,26 @@
         <v>50004</v>
       </c>
       <c r="D45" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>50043</v>
+        <v>50042</v>
       </c>
       <c r="B46" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="3">
-        <v>50005</v>
+        <v>50004</v>
       </c>
       <c r="D46" s="2">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>50044</v>
+        <v>50043</v>
       </c>
       <c r="B47" s="2">
         <v>5</v>
@@ -7079,12 +6957,12 @@
         <v>50005</v>
       </c>
       <c r="D47" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>50045</v>
+        <v>50044</v>
       </c>
       <c r="B48" s="2">
         <v>5</v>
@@ -7098,7 +6976,7 @@
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>50046</v>
+        <v>50045</v>
       </c>
       <c r="B49" s="2">
         <v>5</v>
@@ -7112,7 +6990,7 @@
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>50047</v>
+        <v>50046</v>
       </c>
       <c r="B50" s="2">
         <v>5</v>
@@ -7121,12 +6999,12 @@
         <v>50005</v>
       </c>
       <c r="D50" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>50048</v>
+        <v>50047</v>
       </c>
       <c r="B51" s="2">
         <v>5</v>
@@ -7140,7 +7018,7 @@
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>50049</v>
+        <v>50048</v>
       </c>
       <c r="B52" s="2">
         <v>5</v>
@@ -7154,7 +7032,7 @@
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>50050</v>
+        <v>50049</v>
       </c>
       <c r="B53" s="2">
         <v>5</v>
@@ -7163,12 +7041,12 @@
         <v>50005</v>
       </c>
       <c r="D53" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>50051</v>
+        <v>50050</v>
       </c>
       <c r="B54" s="2">
         <v>5</v>
@@ -7182,7 +7060,7 @@
     </row>
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>50052</v>
+        <v>50051</v>
       </c>
       <c r="B55" s="2">
         <v>5</v>
@@ -7191,6 +7069,20 @@
         <v>50005</v>
       </c>
       <c r="D55" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>50052</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>50005</v>
+      </c>
+      <c r="D56" s="2">
         <v>80</v>
       </c>
     </row>
@@ -7206,10 +7098,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FC5AD9-3F1A-4FBC-9F43-0BD01B1BD1FC}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7223,56 +7115,56 @@
     <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="8" t="s">
         <v>96</v>
       </c>
       <c r="L1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="14" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7367,7 +7259,7 @@
       <c r="H6" s="2">
         <v>6</v>
       </c>
-      <c r="L6" s="93"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -7391,37 +7283,45 @@
       <c r="H7" s="2">
         <v>10</v>
       </c>
-      <c r="L7" s="93"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="84"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="84"/>
-      <c r="C13" s="95"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="84"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="84"/>
-      <c r="C15" s="95"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="94"/>
-      <c r="C16" s="96"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="8" max="6" man="1"/>
+    <brk id="14" max="82" man="1"/>
   </colBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -7433,758 +7333,758 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D247F50B-E2EB-4FFE-8673-38CF74992127}">
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="33"/>
-    <col min="2" max="2" width="29.625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="29.625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="86" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85">
+    <row r="2" spans="1:3" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
         <v>10000</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="86" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85">
+    <row r="3" spans="1:3" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
         <v>10001</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87">
+      <c r="A4" s="41">
         <v>20000</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="41" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87">
+      <c r="A5" s="41">
         <v>20001</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="41" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87">
+      <c r="A6" s="41">
         <v>20002</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="41" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87">
+      <c r="A7" s="41">
         <v>20003</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="41" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87">
+      <c r="A8" s="41">
         <v>20004</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="41" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87">
+      <c r="A9" s="41">
         <v>20005</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="41" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87">
+      <c r="A10" s="41">
         <v>20006</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87">
+      <c r="A11" s="41">
         <v>20007</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="41" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87">
+      <c r="A12" s="41">
         <v>20008</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="41" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87">
+      <c r="A13" s="41">
         <v>20009</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="41" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88">
+      <c r="A14" s="42">
         <v>30000</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88">
+      <c r="A15" s="42">
         <v>30001</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="88">
+      <c r="A16" s="42">
         <v>30002</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="88">
+      <c r="A17" s="42">
         <v>30003</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88">
+      <c r="A18" s="42">
         <v>30004</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="88">
+      <c r="A19" s="42">
         <v>30005</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88">
+      <c r="A20" s="42">
         <v>30006</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="42" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88">
+      <c r="A21" s="42">
         <v>30007</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88">
+      <c r="A22" s="42">
         <v>30008</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="42" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="88">
+      <c r="A23" s="42">
         <v>30009</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="42" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88">
+      <c r="A24" s="42">
         <v>30010</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="42" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="103">
+      <c r="A25" s="57">
         <v>40000</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="57" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="103">
+      <c r="A26" s="57">
         <v>40001</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="57" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="103">
+      <c r="A27" s="57">
         <v>40002</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="103">
+      <c r="A28" s="57">
         <v>40003</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="57" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103">
+      <c r="A29" s="57">
         <v>40004</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="103">
+      <c r="A30" s="57">
         <v>40005</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="104">
+      <c r="A31" s="58">
         <v>50001</v>
       </c>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="58" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="104">
+      <c r="A32" s="58">
         <v>50002</v>
       </c>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="58" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="104">
+      <c r="A33" s="58">
         <v>50003</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="58" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="104">
+      <c r="A34" s="58">
         <v>50004</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="58" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="104">
+      <c r="A35" s="58">
         <v>50005</v>
       </c>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="58" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104">
+      <c r="A36" s="58">
         <v>50006</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="58" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="97">
+      <c r="A37" s="51">
         <v>60000</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="52" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="97">
+      <c r="A38" s="51">
         <v>60001</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="97">
+      <c r="A39" s="51">
         <v>60002</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="97">
+      <c r="A40" s="51">
         <v>60003</v>
       </c>
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="52" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="99">
+      <c r="A41" s="53">
         <v>60004</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="54" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="101">
+      <c r="A42" s="55">
         <v>65000</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="101">
+      <c r="A43" s="55">
         <v>65001</v>
       </c>
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="55" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="101">
+      <c r="A44" s="55">
         <v>65002</v>
       </c>
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="55" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="101">
+      <c r="A45" s="55">
         <v>65003</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="55" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="102">
+      <c r="A46" s="56">
         <v>65004</v>
       </c>
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="56" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="89"/>
-      <c r="B47" s="89"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="89"/>
-      <c r="B48" s="89"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
     </row>
     <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="89"/>
-      <c r="B49" s="89"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
     </row>
     <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="89"/>
-      <c r="B50" s="89"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
     </row>
     <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
     </row>
     <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="89"/>
-      <c r="B52" s="89"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
     </row>
     <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="89"/>
-      <c r="B53" s="89"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
     </row>
     <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="89"/>
-      <c r="B55" s="89"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="89"/>
-      <c r="B56" s="89"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="89"/>
-      <c r="B57" s="89"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
     </row>
     <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
     </row>
     <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
     </row>
     <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
     </row>
     <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="89"/>
-      <c r="B61" s="89"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
     </row>
     <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="89"/>
-      <c r="B62" s="89"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
     </row>
     <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="89"/>
-      <c r="B63" s="89"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
     </row>
     <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="89"/>
-      <c r="B64" s="89"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
     </row>
     <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="89"/>
-      <c r="B65" s="89"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
     </row>
     <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
     </row>
     <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="89"/>
-      <c r="B67" s="89"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
     </row>
     <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="89"/>
-      <c r="B68" s="90"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
     </row>
     <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="89"/>
-      <c r="B69" s="90"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="44"/>
     </row>
     <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="89"/>
-      <c r="B70" s="90"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="44"/>
     </row>
     <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="89"/>
-      <c r="B71" s="90"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="44"/>
     </row>
     <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="89"/>
-      <c r="B72" s="90"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="44"/>
     </row>
     <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="89"/>
-      <c r="B73" s="90"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="44"/>
     </row>
     <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="89"/>
-      <c r="B74" s="90"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="44"/>
     </row>
     <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="89"/>
-      <c r="B75" s="90"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="44"/>
     </row>
     <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="89"/>
-      <c r="B76" s="90"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="44"/>
     </row>
     <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="91"/>
-      <c r="B77" s="92"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="46"/>
     </row>
     <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="91"/>
-      <c r="B78" s="92"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="46"/>
     </row>
     <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="91"/>
-      <c r="B79" s="92"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="46"/>
     </row>
     <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="91"/>
-      <c r="B80" s="92"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="46"/>
     </row>
     <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="91"/>
-      <c r="B81" s="92"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="46"/>
     </row>
     <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="91"/>
-      <c r="B82" s="92"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="46"/>
     </row>
     <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="91"/>
-      <c r="B83" s="92"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="46"/>
     </row>
     <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="91"/>
-      <c r="B84" s="92"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="46"/>
     </row>
     <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="91"/>
-      <c r="B85" s="92"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="46"/>
     </row>
     <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="91"/>
-      <c r="B86" s="92"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="46"/>
     </row>
     <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="91"/>
-      <c r="B87" s="92"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="46"/>
     </row>
     <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="91"/>
-      <c r="B88" s="92"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="46"/>
     </row>
     <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="91"/>
-      <c r="B89" s="92"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="46"/>
     </row>
     <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="91"/>
-      <c r="B90" s="92"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="46"/>
     </row>
     <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="91"/>
-      <c r="B91" s="92"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="46"/>
     </row>
     <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="91"/>
-      <c r="B92" s="92"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="46"/>
     </row>
     <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="91"/>
-      <c r="B93" s="92"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="46"/>
     </row>
     <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="91"/>
-      <c r="B94" s="92"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="46"/>
     </row>
     <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="91"/>
-      <c r="B95" s="92"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="46"/>
     </row>
     <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="91"/>
-      <c r="B96" s="92"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="46"/>
     </row>
     <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="91"/>
-      <c r="B97" s="91"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
     </row>
     <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="91"/>
-      <c r="B98" s="91"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
     </row>
     <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="91"/>
-      <c r="B99" s="91"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
     </row>
     <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="91"/>
-      <c r="B100" s="91"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
     </row>
     <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="91"/>
-      <c r="B101" s="91"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
     </row>
     <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="91"/>
-      <c r="B102" s="91"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
     </row>
     <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="91"/>
-      <c r="B103" s="91"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
     </row>
     <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="91"/>
-      <c r="B104" s="91"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
     </row>
     <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="91"/>
-      <c r="B105" s="91"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
     </row>
     <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="91"/>
-      <c r="B106" s="91"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
     </row>
     <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="91"/>
-      <c r="B107" s="92"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="46"/>
     </row>
     <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="91"/>
-      <c r="B108" s="92"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="46"/>
     </row>
     <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="91"/>
-      <c r="B109" s="92"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="46"/>
     </row>
     <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="91"/>
-      <c r="B110" s="92"/>
+      <c r="A110" s="45"/>
+      <c r="B110" s="46"/>
     </row>
     <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="91"/>
-      <c r="B111" s="92"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="46"/>
     </row>
     <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="91"/>
-      <c r="B112" s="92"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="46"/>
     </row>
     <row r="113" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="91"/>
-      <c r="B113" s="92"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="46"/>
     </row>
     <row r="114" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="91"/>
-      <c r="B114" s="92"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="46"/>
     </row>
     <row r="115" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="91"/>
-      <c r="B115" s="92"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="46"/>
     </row>
     <row r="116" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="91"/>
-      <c r="B116" s="92"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="46"/>
     </row>
     <row r="117" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="91"/>
-      <c r="B117" s="92"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="46"/>
     </row>
     <row r="118" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="91"/>
-      <c r="B118" s="92"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="46"/>
     </row>
     <row r="119" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="91"/>
-      <c r="B119" s="92"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="46"/>
     </row>
     <row r="120" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="91"/>
-      <c r="B120" s="92"/>
+      <c r="A120" s="45"/>
+      <c r="B120" s="46"/>
     </row>
     <row r="121" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="91"/>
-      <c r="B121" s="92"/>
+      <c r="A121" s="45"/>
+      <c r="B121" s="46"/>
     </row>
     <row r="122" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="91"/>
-      <c r="B122" s="92"/>
+      <c r="A122" s="45"/>
+      <c r="B122" s="46"/>
     </row>
     <row r="123" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="91"/>
-      <c r="B123" s="92"/>
+      <c r="A123" s="45"/>
+      <c r="B123" s="46"/>
     </row>
     <row r="124" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="91"/>
-      <c r="B124" s="92"/>
+      <c r="A124" s="45"/>
+      <c r="B124" s="46"/>
     </row>
     <row r="125" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="91"/>
-      <c r="B125" s="92"/>
+      <c r="A125" s="45"/>
+      <c r="B125" s="46"/>
     </row>
     <row r="126" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="91"/>
-      <c r="B126" s="92"/>
+      <c r="A126" s="45"/>
+      <c r="B126" s="46"/>
     </row>
     <row r="127" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="91"/>
-      <c r="B127" s="92"/>
+      <c r="A127" s="45"/>
+      <c r="B127" s="46"/>
     </row>
     <row r="128" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="91"/>
-      <c r="B128" s="92"/>
+      <c r="A128" s="45"/>
+      <c r="B128" s="46"/>
     </row>
     <row r="129" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="91"/>
-      <c r="B129" s="92"/>
+      <c r="A129" s="45"/>
+      <c r="B129" s="46"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="82"/>
-      <c r="B130" s="84"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="38"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="82"/>
-      <c r="B131" s="84"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="38"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="82"/>
-      <c r="B132" s="84"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="38"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="82"/>
-      <c r="B133" s="84"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="38"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="83"/>
-      <c r="B134" s="94"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="48"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="95"/>
-      <c r="B135" s="95"/>
+      <c r="A135" s="49"/>
+      <c r="B135" s="49"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="95"/>
-      <c r="B136" s="95"/>
+      <c r="A136" s="49"/>
+      <c r="B136" s="49"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="95"/>
-      <c r="B137" s="95"/>
+      <c r="A137" s="49"/>
+      <c r="B137" s="49"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="95"/>
-      <c r="B138" s="95"/>
+      <c r="A138" s="49"/>
+      <c r="B138" s="49"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="96"/>
-      <c r="B139" s="96"/>
+      <c r="A139" s="50"/>
+      <c r="B139" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8200,7 +8100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4046F081-B68E-413B-819E-3D9BA3C88642}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -8213,150 +8113,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="15">
         <v>4</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="15">
         <v>4</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="20" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="15">
         <v>8</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="20" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="22">
         <v>28</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="23" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="22">
         <v>1</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="23" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
